--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202304_1_school.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202304_1_school.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C3CEB1-23C7-41B0-9D15-62A476B7D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2118,26 +2124,20 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 1. SCH/STH – Ecole/Localité V6.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_1_school_202110_v6_1</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202304_1_school</t>
+  </si>
+  <si>
+    <t>(Avril 2023) - 1. SCH/STH – Ecole/Localité V6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2178,164 +2178,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2360,194 +2209,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2585,247 +2248,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2837,33 +2273,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2876,70 +2308,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -3012,6 +2397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3269,93 +2657,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6066666666667" style="18" customWidth="1"/>
-    <col min="2" max="2" width="25.12" style="18" customWidth="1"/>
-    <col min="3" max="3" width="42.6066666666667" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31" style="18" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="39.22" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.6066666666667" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.8866666666667" style="18" customWidth="1"/>
-    <col min="9" max="10" width="29.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="22" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.6066666666667" style="18" customWidth="1"/>
-    <col min="13" max="13" width="9.72" style="18" customWidth="1"/>
-    <col min="14" max="14" width="13.8866666666667" style="18" customWidth="1"/>
-    <col min="15" max="15" width="36.6066666666667" style="18" customWidth="1"/>
-    <col min="16" max="1024" width="11" style="18"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="39.25" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" spans="1:15">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -3378,11 +2764,11 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" s="13" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3396,7 +2782,7 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="24"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
       <c r="K3" s="9"/>
@@ -3407,11 +2793,11 @@
       <c r="N3" s="9"/>
       <c r="O3"/>
     </row>
-    <row r="4" s="13" customFormat="1" spans="1:15">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -3425,7 +2811,7 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
       <c r="K4" s="9"/>
@@ -3438,11 +2824,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" ht="31.5" spans="1:15">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3467,11 +2853,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="1" spans="1:15">
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -3496,11 +2882,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:15">
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3527,11 +2913,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" s="13" customFormat="1" spans="1:15">
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -3554,127 +2940,127 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="31.5" spans="1:15">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:15">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="31.5" spans="1:15">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="26"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:15">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="26"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="1:15">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3699,11 +3085,11 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" s="13" customFormat="1" ht="31.5" spans="1:15">
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3728,173 +3114,170 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="31.5" spans="1:15">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="47.25" spans="1:15">
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="26"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:15">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23"/>
+      <c r="K17"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:15">
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="26"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:15">
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="26"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="K19"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H786"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3866666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.1066666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.1066666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.72" customWidth="1"/>
-    <col min="8" max="8" width="14.22" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -3910,7 +3293,7 @@
       <c r="E1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3920,7 +3303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>101</v>
       </c>
@@ -3934,11 +3317,11 @@
         <v>102</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="16"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>101</v>
       </c>
@@ -3952,11 +3335,11 @@
         <v>103</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>101</v>
       </c>
@@ -3970,11 +3353,11 @@
         <v>104</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -3988,11 +3371,11 @@
         <v>105</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>101</v>
       </c>
@@ -4006,11 +3389,11 @@
         <v>106</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>101</v>
       </c>
@@ -4024,11 +3407,11 @@
         <v>107</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>101</v>
       </c>
@@ -4042,11 +3425,11 @@
         <v>108</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>101</v>
       </c>
@@ -4060,11 +3443,11 @@
         <v>109</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>101</v>
       </c>
@@ -4078,11 +3461,11 @@
         <v>110</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>101</v>
       </c>
@@ -4096,11 +3479,11 @@
         <v>111</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>101</v>
       </c>
@@ -4114,11 +3497,11 @@
         <v>112</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>101</v>
       </c>
@@ -4132,11 +3515,11 @@
         <v>113</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>101</v>
       </c>
@@ -4150,11 +3533,11 @@
         <v>114</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>101</v>
       </c>
@@ -4168,11 +3551,11 @@
         <v>115</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
@@ -4186,11 +3569,11 @@
         <v>116</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -4204,11 +3587,11 @@
         <v>117</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>101</v>
       </c>
@@ -4222,11 +3605,11 @@
         <v>118</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>101</v>
       </c>
@@ -4240,11 +3623,11 @@
         <v>119</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>101</v>
       </c>
@@ -4258,11 +3641,11 @@
         <v>120</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>101</v>
       </c>
@@ -4276,11 +3659,11 @@
         <v>121</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>101</v>
       </c>
@@ -4294,11 +3677,11 @@
         <v>122</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>101</v>
       </c>
@@ -4312,11 +3695,11 @@
         <v>123</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>101</v>
       </c>
@@ -4330,21 +3713,21 @@
         <v>124</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>125</v>
       </c>
@@ -4360,7 +3743,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>125</v>
       </c>
@@ -4376,7 +3759,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>130</v>
       </c>
@@ -4392,7 +3775,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>130</v>
       </c>
@@ -4408,7 +3791,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>130</v>
       </c>
@@ -4424,7 +3807,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>133</v>
       </c>
@@ -4440,7 +3823,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" ht="31.5" spans="1:6">
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>133</v>
       </c>
@@ -4456,7 +3839,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>133</v>
       </c>
@@ -4472,7 +3855,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -4480,7 +3863,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" ht="31.5" spans="1:6">
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>143</v>
       </c>
@@ -4496,7 +3879,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" ht="31.5" spans="1:6">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>143</v>
       </c>
@@ -4512,7 +3895,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -4528,7 +3911,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -4544,7 +3927,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>143</v>
       </c>
@@ -4560,7 +3943,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>143</v>
       </c>
@@ -4576,7 +3959,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" ht="31.5" spans="1:6">
+    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>143</v>
       </c>
@@ -4592,7 +3975,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>143</v>
       </c>
@@ -4608,7 +3991,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -4616,7 +3999,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>163</v>
       </c>
@@ -4632,7 +4015,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>163</v>
       </c>
@@ -4648,7 +4031,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>163</v>
       </c>
@@ -4664,7 +4047,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>163</v>
       </c>
@@ -4680,7 +4063,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -4688,7 +4071,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" ht="31.5" spans="1:6">
+    <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>172</v>
       </c>
@@ -4704,7 +4087,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>172</v>
       </c>
@@ -4720,7 +4103,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>179</v>
       </c>
@@ -4736,7 +4119,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>179</v>
       </c>
@@ -4752,7 +4135,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>179</v>
       </c>
@@ -4768,7 +4151,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" ht="47.25" spans="1:6">
+    <row r="54" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>186</v>
       </c>
@@ -4784,7 +4167,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>186</v>
       </c>
@@ -4800,7 +4183,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>186</v>
       </c>
@@ -4816,7 +4199,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" ht="31.5" spans="1:6">
+    <row r="57" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>186</v>
       </c>
@@ -4832,7 +4215,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" ht="31.5" spans="1:6">
+    <row r="58" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>186</v>
       </c>
@@ -4848,7 +4231,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>198</v>
       </c>
@@ -4864,7 +4247,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>198</v>
       </c>
@@ -4880,7 +4263,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>198</v>
       </c>
@@ -4896,7 +4279,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>198</v>
       </c>
@@ -4912,7 +4295,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>198</v>
       </c>
@@ -4927,12 +4310,11 @@
       </c>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="65" spans="1:4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -4946,7 +4328,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>210</v>
       </c>
@@ -4960,7 +4342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>210</v>
       </c>
@@ -4974,7 +4356,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>210</v>
       </c>
@@ -4988,7 +4370,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>210</v>
       </c>
@@ -5002,7 +4384,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -5016,7 +4398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -5030,15 +4412,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>97</v>
       </c>
@@ -5052,9 +4434,9 @@
         <v>218</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>97</v>
       </c>
@@ -5068,9 +4450,9 @@
         <v>219</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>97</v>
       </c>
@@ -5084,9 +4466,9 @@
         <v>220</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>97</v>
       </c>
@@ -5100,17 +4482,17 @@
         <v>221</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>98</v>
       </c>
@@ -5126,9 +4508,9 @@
       <c r="E78" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>98</v>
       </c>
@@ -5144,9 +4526,9 @@
       <c r="E79" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>98</v>
       </c>
@@ -5162,9 +4544,9 @@
       <c r="E80" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>98</v>
       </c>
@@ -5180,9 +4562,9 @@
       <c r="E81" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>98</v>
       </c>
@@ -5198,9 +4580,9 @@
       <c r="E82" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>98</v>
       </c>
@@ -5216,9 +4598,9 @@
       <c r="E83" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83" s="15"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>98</v>
       </c>
@@ -5234,9 +4616,9 @@
       <c r="E84" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="15"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>98</v>
       </c>
@@ -5252,9 +4634,9 @@
       <c r="E85" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F85" s="16"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="F85" s="15"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>98</v>
       </c>
@@ -5270,9 +4652,9 @@
       <c r="E86" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F86" s="16"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" s="15"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>98</v>
       </c>
@@ -5288,14 +4670,14 @@
       <c r="E87" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="2:4">
+      <c r="F87" s="15"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -5312,7 +4694,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -5329,7 +4711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -5346,7 +4728,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -5363,7 +4745,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5380,7 +4762,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -5397,7 +4779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -5414,7 +4796,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -5431,7 +4813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -5448,7 +4830,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -5465,7 +4847,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -5482,7 +4864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5499,7 +4881,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5516,7 +4898,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -5533,7 +4915,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -5550,7 +4932,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -5567,7 +4949,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -5584,7 +4966,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -5601,7 +4983,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>99</v>
       </c>
@@ -5618,7 +5000,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -5635,7 +5017,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -5652,7 +5034,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -5669,7 +5051,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -5686,7 +5068,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -5703,7 +5085,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -5720,7 +5102,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -5737,7 +5119,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -5754,7 +5136,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -5771,7 +5153,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -5788,7 +5170,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -5805,7 +5187,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -5822,7 +5204,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -5839,7 +5221,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -5856,7 +5238,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -5873,7 +5255,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -5890,7 +5272,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -5907,7 +5289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -5924,7 +5306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -5941,7 +5323,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -5958,7 +5340,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -5975,7 +5357,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -5992,7 +5374,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -6009,7 +5391,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -6026,7 +5408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -6043,7 +5425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -6060,7 +5442,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -6077,7 +5459,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -6094,7 +5476,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -6111,7 +5493,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -6128,7 +5510,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -6145,7 +5527,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -6162,7 +5544,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -6179,7 +5561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -6196,7 +5578,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -6213,7 +5595,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -6230,7 +5612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -6247,7 +5629,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -6264,7 +5646,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -6281,7 +5663,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -6298,7 +5680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -6315,7 +5697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -6332,7 +5714,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -6349,7 +5731,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -6366,7 +5748,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" ht="31.5" spans="1:6">
+    <row r="152" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -6383,7 +5765,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -6400,7 +5782,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -6417,7 +5799,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -6434,7 +5816,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -6451,7 +5833,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -6468,7 +5850,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" ht="31.5" spans="1:6">
+    <row r="158" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -6485,7 +5867,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>99</v>
       </c>
@@ -6502,7 +5884,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>99</v>
       </c>
@@ -6519,7 +5901,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>99</v>
       </c>
@@ -6536,7 +5918,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>99</v>
       </c>
@@ -6553,7 +5935,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>99</v>
       </c>
@@ -6570,7 +5952,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="164" ht="31.5" spans="1:6">
+    <row r="164" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>99</v>
       </c>
@@ -6587,7 +5969,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>99</v>
       </c>
@@ -6604,7 +5986,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -6621,7 +6003,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>99</v>
       </c>
@@ -6638,7 +6020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>99</v>
       </c>
@@ -6655,7 +6037,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>99</v>
       </c>
@@ -6672,7 +6054,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>99</v>
       </c>
@@ -6689,7 +6071,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="171" ht="31.5" spans="1:6">
+    <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>99</v>
       </c>
@@ -6706,7 +6088,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>99</v>
       </c>
@@ -6723,7 +6105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>99</v>
       </c>
@@ -6740,7 +6122,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>99</v>
       </c>
@@ -6757,7 +6139,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="175" ht="31.5" spans="1:6">
+    <row r="175" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>99</v>
       </c>
@@ -6774,7 +6156,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>99</v>
       </c>
@@ -6791,7 +6173,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>99</v>
       </c>
@@ -6808,7 +6190,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>99</v>
       </c>
@@ -6825,7 +6207,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>99</v>
       </c>
@@ -6842,7 +6224,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>99</v>
       </c>
@@ -6859,7 +6241,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>100</v>
       </c>
@@ -6876,7 +6258,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="183" ht="31.5" spans="1:7">
+    <row r="183" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>100</v>
       </c>
@@ -6893,7 +6275,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -6910,7 +6292,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -6927,7 +6309,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -6944,7 +6326,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -6961,7 +6343,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -6978,7 +6360,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -6995,7 +6377,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="190" ht="79" customHeight="1" spans="1:7">
+    <row r="190" spans="1:7" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -7012,7 +6394,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -7029,7 +6411,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>100</v>
       </c>
@@ -7046,7 +6428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -7063,7 +6445,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="194" ht="31.5" spans="1:7">
+    <row r="194" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -7080,7 +6462,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -7097,7 +6479,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -7114,7 +6496,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>100</v>
       </c>
@@ -7131,7 +6513,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -7148,7 +6530,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>100</v>
       </c>
@@ -7165,7 +6547,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>100</v>
       </c>
@@ -7182,7 +6564,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>100</v>
       </c>
@@ -7199,7 +6581,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>100</v>
       </c>
@@ -7216,7 +6598,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>100</v>
       </c>
@@ -7233,7 +6615,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>100</v>
       </c>
@@ -7250,7 +6632,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>100</v>
       </c>
@@ -7267,7 +6649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>100</v>
       </c>
@@ -7284,7 +6666,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>100</v>
       </c>
@@ -7301,7 +6683,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>100</v>
       </c>
@@ -7318,7 +6700,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>100</v>
       </c>
@@ -7335,7 +6717,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>100</v>
       </c>
@@ -7352,7 +6734,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>100</v>
       </c>
@@ -7369,7 +6751,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>100</v>
       </c>
@@ -7386,7 +6768,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>100</v>
       </c>
@@ -7403,7 +6785,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>100</v>
       </c>
@@ -7420,7 +6802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>100</v>
       </c>
@@ -7437,7 +6819,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>100</v>
       </c>
@@ -7454,7 +6836,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>100</v>
       </c>
@@ -7471,7 +6853,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>100</v>
       </c>
@@ -7488,7 +6870,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>100</v>
       </c>
@@ -7505,7 +6887,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>100</v>
       </c>
@@ -7522,7 +6904,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>100</v>
       </c>
@@ -7539,7 +6921,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +6938,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>100</v>
       </c>
@@ -7573,7 +6955,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>100</v>
       </c>
@@ -7590,7 +6972,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>100</v>
       </c>
@@ -7607,7 +6989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>100</v>
       </c>
@@ -7624,7 +7006,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>100</v>
       </c>
@@ -7641,7 +7023,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>100</v>
       </c>
@@ -7658,7 +7040,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>100</v>
       </c>
@@ -7675,7 +7057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>100</v>
       </c>
@@ -7692,7 +7074,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>100</v>
       </c>
@@ -7709,7 +7091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>100</v>
       </c>
@@ -7726,7 +7108,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>100</v>
       </c>
@@ -7743,7 +7125,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -7760,7 +7142,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>100</v>
       </c>
@@ -7777,7 +7159,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>100</v>
       </c>
@@ -7794,7 +7176,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>100</v>
       </c>
@@ -7811,7 +7193,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>100</v>
       </c>
@@ -7828,7 +7210,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>100</v>
       </c>
@@ -7845,7 +7227,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>100</v>
       </c>
@@ -7862,7 +7244,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>100</v>
       </c>
@@ -7879,7 +7261,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>100</v>
       </c>
@@ -7896,7 +7278,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>100</v>
       </c>
@@ -7913,7 +7295,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>100</v>
       </c>
@@ -7930,7 +7312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>100</v>
       </c>
@@ -7947,7 +7329,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>100</v>
       </c>
@@ -7964,7 +7346,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>100</v>
       </c>
@@ -7981,7 +7363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>100</v>
       </c>
@@ -7998,7 +7380,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>100</v>
       </c>
@@ -8015,7 +7397,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>100</v>
       </c>
@@ -8032,7 +7414,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>100</v>
       </c>
@@ -8049,7 +7431,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>100</v>
       </c>
@@ -8066,7 +7448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>100</v>
       </c>
@@ -8083,7 +7465,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>100</v>
       </c>
@@ -8100,7 +7482,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>100</v>
       </c>
@@ -8117,7 +7499,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>100</v>
       </c>
@@ -8134,7 +7516,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -8151,7 +7533,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>100</v>
       </c>
@@ -8168,7 +7550,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="259" ht="47.25" spans="1:7">
+    <row r="259" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>100</v>
       </c>
@@ -8185,7 +7567,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>100</v>
       </c>
@@ -8202,7 +7584,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>100</v>
       </c>
@@ -8219,7 +7601,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>100</v>
       </c>
@@ -8236,7 +7618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>100</v>
       </c>
@@ -8253,7 +7635,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>100</v>
       </c>
@@ -8270,7 +7652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>100</v>
       </c>
@@ -8287,7 +7669,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="266" ht="31.5" spans="1:7">
+    <row r="266" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>100</v>
       </c>
@@ -8304,7 +7686,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>100</v>
       </c>
@@ -8321,7 +7703,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>100</v>
       </c>
@@ -8338,7 +7720,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>100</v>
       </c>
@@ -8355,7 +7737,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>100</v>
       </c>
@@ -8372,7 +7754,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>100</v>
       </c>
@@ -8389,7 +7771,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>100</v>
       </c>
@@ -8406,7 +7788,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>100</v>
       </c>
@@ -8423,7 +7805,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>100</v>
       </c>
@@ -8440,7 +7822,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>100</v>
       </c>
@@ -8457,7 +7839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>100</v>
       </c>
@@ -8474,7 +7856,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>100</v>
       </c>
@@ -8491,7 +7873,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>100</v>
       </c>
@@ -8508,7 +7890,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>100</v>
       </c>
@@ -8525,7 +7907,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>100</v>
       </c>
@@ -8542,7 +7924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>100</v>
       </c>
@@ -8559,7 +7941,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>100</v>
       </c>
@@ -8576,7 +7958,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>100</v>
       </c>
@@ -8593,7 +7975,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>100</v>
       </c>
@@ -8610,7 +7992,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>100</v>
       </c>
@@ -8627,7 +8009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>100</v>
       </c>
@@ -8644,7 +8026,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>100</v>
       </c>
@@ -8661,7 +8043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>100</v>
       </c>
@@ -8678,7 +8060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>100</v>
       </c>
@@ -8695,7 +8077,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>100</v>
       </c>
@@ -8712,7 +8094,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>100</v>
       </c>
@@ -8729,7 +8111,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>100</v>
       </c>
@@ -8746,7 +8128,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>100</v>
       </c>
@@ -8763,7 +8145,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>100</v>
       </c>
@@ -8780,7 +8162,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>100</v>
       </c>
@@ -8797,7 +8179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>100</v>
       </c>
@@ -8814,7 +8196,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>100</v>
       </c>
@@ -8831,7 +8213,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>100</v>
       </c>
@@ -8848,7 +8230,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>100</v>
       </c>
@@ -8865,7 +8247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>100</v>
       </c>
@@ -8882,7 +8264,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>100</v>
       </c>
@@ -8899,7 +8281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>100</v>
       </c>
@@ -8916,7 +8298,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>100</v>
       </c>
@@ -8933,7 +8315,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>100</v>
       </c>
@@ -8950,7 +8332,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>100</v>
       </c>
@@ -8967,7 +8349,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>100</v>
       </c>
@@ -8984,7 +8366,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>100</v>
       </c>
@@ -9001,7 +8383,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>100</v>
       </c>
@@ -9018,7 +8400,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>100</v>
       </c>
@@ -9035,7 +8417,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>100</v>
       </c>
@@ -9052,7 +8434,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>100</v>
       </c>
@@ -9069,7 +8451,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>100</v>
       </c>
@@ -9086,7 +8468,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>100</v>
       </c>
@@ -9103,7 +8485,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>100</v>
       </c>
@@ -9120,7 +8502,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>100</v>
       </c>
@@ -9137,7 +8519,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>100</v>
       </c>
@@ -9154,7 +8536,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>100</v>
       </c>
@@ -9171,7 +8553,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>100</v>
       </c>
@@ -9188,7 +8570,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>100</v>
       </c>
@@ -9205,7 +8587,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>100</v>
       </c>
@@ -9222,7 +8604,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>100</v>
       </c>
@@ -9239,7 +8621,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>100</v>
       </c>
@@ -9256,7 +8638,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>100</v>
       </c>
@@ -9273,7 +8655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>100</v>
       </c>
@@ -9290,7 +8672,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -9307,7 +8689,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>100</v>
       </c>
@@ -9324,7 +8706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>100</v>
       </c>
@@ -9341,7 +8723,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>100</v>
       </c>
@@ -9358,7 +8740,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>100</v>
       </c>
@@ -9375,7 +8757,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>100</v>
       </c>
@@ -9392,7 +8774,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>100</v>
       </c>
@@ -9409,7 +8791,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>100</v>
       </c>
@@ -9426,7 +8808,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>100</v>
       </c>
@@ -9443,7 +8825,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>100</v>
       </c>
@@ -9460,7 +8842,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -9477,7 +8859,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>100</v>
       </c>
@@ -9494,7 +8876,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>100</v>
       </c>
@@ -9511,7 +8893,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>100</v>
       </c>
@@ -9528,7 +8910,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>100</v>
       </c>
@@ -9545,7 +8927,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>100</v>
       </c>
@@ -9562,7 +8944,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>100</v>
       </c>
@@ -9579,7 +8961,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>100</v>
       </c>
@@ -9596,7 +8978,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>100</v>
       </c>
@@ -9613,7 +8995,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>100</v>
       </c>
@@ -9630,7 +9012,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>100</v>
       </c>
@@ -9647,7 +9029,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>100</v>
       </c>
@@ -9664,7 +9046,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>100</v>
       </c>
@@ -9681,7 +9063,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>100</v>
       </c>
@@ -9698,7 +9080,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>100</v>
       </c>
@@ -9715,7 +9097,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>100</v>
       </c>
@@ -9732,7 +9114,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>100</v>
       </c>
@@ -9749,7 +9131,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>100</v>
       </c>
@@ -9766,7 +9148,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>100</v>
       </c>
@@ -9783,7 +9165,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>100</v>
       </c>
@@ -9800,7 +9182,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>100</v>
       </c>
@@ -9817,7 +9199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>100</v>
       </c>
@@ -9834,7 +9216,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>100</v>
       </c>
@@ -9851,7 +9233,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>100</v>
       </c>
@@ -9868,7 +9250,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>100</v>
       </c>
@@ -9885,7 +9267,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>100</v>
       </c>
@@ -9902,7 +9284,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>100</v>
       </c>
@@ -9919,7 +9301,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>100</v>
       </c>
@@ -9936,7 +9318,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>100</v>
       </c>
@@ -9953,7 +9335,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>100</v>
       </c>
@@ -9970,7 +9352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>100</v>
       </c>
@@ -9987,7 +9369,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>100</v>
       </c>
@@ -10004,7 +9386,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>100</v>
       </c>
@@ -10021,7 +9403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>100</v>
       </c>
@@ -10038,7 +9420,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>100</v>
       </c>
@@ -10055,7 +9437,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>100</v>
       </c>
@@ -10072,7 +9454,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>100</v>
       </c>
@@ -10089,7 +9471,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>100</v>
       </c>
@@ -10106,7 +9488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>100</v>
       </c>
@@ -10123,7 +9505,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>100</v>
       </c>
@@ -10140,7 +9522,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>100</v>
       </c>
@@ -10157,7 +9539,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>100</v>
       </c>
@@ -10174,7 +9556,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>100</v>
       </c>
@@ -10191,7 +9573,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>100</v>
       </c>
@@ -10208,7 +9590,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>100</v>
       </c>
@@ -10225,7 +9607,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>100</v>
       </c>
@@ -10242,7 +9624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>100</v>
       </c>
@@ -10259,7 +9641,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>100</v>
       </c>
@@ -10276,7 +9658,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>100</v>
       </c>
@@ -10293,7 +9675,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>100</v>
       </c>
@@ -10310,7 +9692,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>100</v>
       </c>
@@ -10327,7 +9709,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>100</v>
       </c>
@@ -10344,7 +9726,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>100</v>
       </c>
@@ -10361,7 +9743,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>100</v>
       </c>
@@ -10378,7 +9760,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>100</v>
       </c>
@@ -10395,7 +9777,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>100</v>
       </c>
@@ -10412,7 +9794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>100</v>
       </c>
@@ -10429,7 +9811,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>100</v>
       </c>
@@ -10446,7 +9828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>100</v>
       </c>
@@ -10463,7 +9845,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>100</v>
       </c>
@@ -10480,7 +9862,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>100</v>
       </c>
@@ -10497,7 +9879,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>100</v>
       </c>
@@ -10514,7 +9896,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>100</v>
       </c>
@@ -10531,7 +9913,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>100</v>
       </c>
@@ -10548,7 +9930,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>100</v>
       </c>
@@ -10565,7 +9947,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>100</v>
       </c>
@@ -10582,7 +9964,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>100</v>
       </c>
@@ -10599,7 +9981,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>100</v>
       </c>
@@ -10616,7 +9998,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>100</v>
       </c>
@@ -10633,7 +10015,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="404" ht="31.5" spans="1:7">
+    <row r="404" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>100</v>
       </c>
@@ -10650,7 +10032,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>100</v>
       </c>
@@ -10667,7 +10049,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>100</v>
       </c>
@@ -10684,7 +10066,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>100</v>
       </c>
@@ -10701,7 +10083,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>100</v>
       </c>
@@ -10718,7 +10100,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>100</v>
       </c>
@@ -10735,7 +10117,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>100</v>
       </c>
@@ -10752,7 +10134,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>100</v>
       </c>
@@ -10769,7 +10151,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>100</v>
       </c>
@@ -10786,7 +10168,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>100</v>
       </c>
@@ -10803,7 +10185,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>100</v>
       </c>
@@ -10820,7 +10202,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>100</v>
       </c>
@@ -10837,7 +10219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>100</v>
       </c>
@@ -10854,7 +10236,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>100</v>
       </c>
@@ -10871,7 +10253,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>100</v>
       </c>
@@ -10888,7 +10270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>100</v>
       </c>
@@ -10905,7 +10287,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>100</v>
       </c>
@@ -10922,7 +10304,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>100</v>
       </c>
@@ -10939,7 +10321,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>100</v>
       </c>
@@ -10956,7 +10338,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>100</v>
       </c>
@@ -10973,7 +10355,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>100</v>
       </c>
@@ -10990,7 +10372,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>100</v>
       </c>
@@ -11007,7 +10389,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>100</v>
       </c>
@@ -11024,7 +10406,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>100</v>
       </c>
@@ -11041,7 +10423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>100</v>
       </c>
@@ -11058,7 +10440,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>100</v>
       </c>
@@ -11075,7 +10457,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>100</v>
       </c>
@@ -11092,7 +10474,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>100</v>
       </c>
@@ -11109,7 +10491,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>100</v>
       </c>
@@ -11126,7 +10508,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>100</v>
       </c>
@@ -11143,7 +10525,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>100</v>
       </c>
@@ -11160,7 +10542,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>100</v>
       </c>
@@ -11177,7 +10559,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -11194,7 +10576,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>100</v>
       </c>
@@ -11211,7 +10593,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>100</v>
       </c>
@@ -11228,7 +10610,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>100</v>
       </c>
@@ -11245,7 +10627,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>100</v>
       </c>
@@ -11262,7 +10644,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>100</v>
       </c>
@@ -11279,7 +10661,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>100</v>
       </c>
@@ -11296,7 +10678,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>100</v>
       </c>
@@ -11313,7 +10695,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>100</v>
       </c>
@@ -11330,7 +10712,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>100</v>
       </c>
@@ -11347,7 +10729,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>100</v>
       </c>
@@ -11364,7 +10746,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>100</v>
       </c>
@@ -11381,7 +10763,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>100</v>
       </c>
@@ -11398,7 +10780,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>100</v>
       </c>
@@ -11415,7 +10797,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>100</v>
       </c>
@@ -11432,7 +10814,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>100</v>
       </c>
@@ -11449,7 +10831,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>100</v>
       </c>
@@ -11466,7 +10848,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>100</v>
       </c>
@@ -11483,7 +10865,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>100</v>
       </c>
@@ -11500,7 +10882,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>100</v>
       </c>
@@ -11517,7 +10899,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>100</v>
       </c>
@@ -11534,7 +10916,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>100</v>
       </c>
@@ -11551,7 +10933,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>100</v>
       </c>
@@ -11568,7 +10950,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>100</v>
       </c>
@@ -11585,7 +10967,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>100</v>
       </c>
@@ -11602,7 +10984,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>100</v>
       </c>
@@ -11619,7 +11001,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>100</v>
       </c>
@@ -11636,7 +11018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>100</v>
       </c>
@@ -11653,7 +11035,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>100</v>
       </c>
@@ -11670,7 +11052,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>100</v>
       </c>
@@ -11687,7 +11069,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>100</v>
       </c>
@@ -11704,7 +11086,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>100</v>
       </c>
@@ -11721,7 +11103,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>100</v>
       </c>
@@ -11738,7 +11120,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>100</v>
       </c>
@@ -11755,7 +11137,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>100</v>
       </c>
@@ -11772,7 +11154,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>100</v>
       </c>
@@ -11789,7 +11171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>100</v>
       </c>
@@ -11806,7 +11188,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>100</v>
       </c>
@@ -11823,7 +11205,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>100</v>
       </c>
@@ -11840,7 +11222,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>100</v>
       </c>
@@ -11857,7 +11239,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>100</v>
       </c>
@@ -11874,7 +11256,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>100</v>
       </c>
@@ -11891,7 +11273,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>100</v>
       </c>
@@ -11908,7 +11290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>100</v>
       </c>
@@ -11925,7 +11307,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>100</v>
       </c>
@@ -11942,7 +11324,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>100</v>
       </c>
@@ -11959,7 +11341,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>100</v>
       </c>
@@ -11976,7 +11358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>100</v>
       </c>
@@ -11993,1844 +11375,1842 @@
         <v>240</v>
       </c>
     </row>
-    <row r="485" spans="2:8">
-      <c r="B485" s="17"/>
-      <c r="C485" s="17"/>
-      <c r="D485" s="17"/>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B485" s="16"/>
+      <c r="C485" s="16"/>
+      <c r="D485" s="16"/>
       <c r="H485" s="4"/>
     </row>
-    <row r="486" spans="2:8">
-      <c r="B486" s="17"/>
-      <c r="C486" s="17"/>
-      <c r="D486" s="17"/>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B486" s="16"/>
+      <c r="C486" s="16"/>
+      <c r="D486" s="16"/>
       <c r="H486" s="4"/>
     </row>
-    <row r="487" spans="2:8">
-      <c r="B487" s="17"/>
-      <c r="C487" s="17"/>
-      <c r="D487" s="17"/>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B487" s="16"/>
+      <c r="C487" s="16"/>
+      <c r="D487" s="16"/>
       <c r="H487" s="4"/>
     </row>
-    <row r="488" spans="2:8">
-      <c r="B488" s="17"/>
-      <c r="C488" s="17"/>
-      <c r="D488" s="17"/>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B488" s="16"/>
+      <c r="C488" s="16"/>
+      <c r="D488" s="16"/>
       <c r="H488" s="4"/>
     </row>
-    <row r="489" spans="2:8">
-      <c r="B489" s="17"/>
-      <c r="C489" s="17"/>
-      <c r="D489" s="17"/>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B489" s="16"/>
+      <c r="C489" s="16"/>
+      <c r="D489" s="16"/>
       <c r="H489" s="4"/>
     </row>
-    <row r="490" spans="2:8">
-      <c r="B490" s="17"/>
-      <c r="C490" s="17"/>
-      <c r="D490" s="17"/>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B490" s="16"/>
+      <c r="C490" s="16"/>
+      <c r="D490" s="16"/>
       <c r="H490" s="4"/>
     </row>
-    <row r="491" spans="2:8">
-      <c r="B491" s="17"/>
-      <c r="C491" s="17"/>
-      <c r="D491" s="17"/>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B491" s="16"/>
+      <c r="C491" s="16"/>
+      <c r="D491" s="16"/>
       <c r="H491" s="4"/>
     </row>
-    <row r="492" spans="2:8">
-      <c r="B492" s="17"/>
-      <c r="C492" s="17"/>
-      <c r="D492" s="17"/>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B492" s="16"/>
+      <c r="C492" s="16"/>
+      <c r="D492" s="16"/>
       <c r="H492" s="4"/>
     </row>
-    <row r="493" spans="2:8">
-      <c r="B493" s="17"/>
-      <c r="C493" s="17"/>
-      <c r="D493" s="17"/>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B493" s="16"/>
+      <c r="C493" s="16"/>
+      <c r="D493" s="16"/>
       <c r="H493" s="4"/>
     </row>
-    <row r="494" spans="2:8">
-      <c r="B494" s="17"/>
-      <c r="C494" s="17"/>
-      <c r="D494" s="17"/>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B494" s="16"/>
+      <c r="C494" s="16"/>
+      <c r="D494" s="16"/>
       <c r="H494" s="4"/>
     </row>
-    <row r="495" spans="2:8">
-      <c r="B495" s="17"/>
-      <c r="C495" s="17"/>
-      <c r="D495" s="17"/>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B495" s="16"/>
+      <c r="C495" s="16"/>
+      <c r="D495" s="16"/>
       <c r="H495" s="4"/>
     </row>
-    <row r="496" spans="2:8">
-      <c r="B496" s="17"/>
-      <c r="C496" s="17"/>
-      <c r="D496" s="17"/>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B496" s="16"/>
+      <c r="C496" s="16"/>
+      <c r="D496" s="16"/>
       <c r="H496" s="4"/>
     </row>
-    <row r="497" spans="2:8">
-      <c r="B497" s="17"/>
-      <c r="C497" s="17"/>
-      <c r="D497" s="17"/>
+    <row r="497" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B497" s="16"/>
+      <c r="C497" s="16"/>
+      <c r="D497" s="16"/>
       <c r="H497" s="4"/>
     </row>
-    <row r="498" spans="2:8">
-      <c r="B498" s="17"/>
-      <c r="C498" s="17"/>
-      <c r="D498" s="17"/>
+    <row r="498" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B498" s="16"/>
+      <c r="C498" s="16"/>
+      <c r="D498" s="16"/>
       <c r="H498" s="4"/>
     </row>
-    <row r="499" spans="2:8">
-      <c r="B499" s="17"/>
-      <c r="C499" s="17"/>
-      <c r="D499" s="17"/>
+    <row r="499" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B499" s="16"/>
+      <c r="C499" s="16"/>
+      <c r="D499" s="16"/>
       <c r="H499" s="4"/>
     </row>
-    <row r="500" spans="2:8">
-      <c r="B500" s="17"/>
-      <c r="C500" s="17"/>
-      <c r="D500" s="17"/>
+    <row r="500" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B500" s="16"/>
+      <c r="C500" s="16"/>
+      <c r="D500" s="16"/>
       <c r="H500" s="4"/>
     </row>
-    <row r="501" spans="2:8">
-      <c r="B501" s="17"/>
-      <c r="C501" s="17"/>
-      <c r="D501" s="17"/>
+    <row r="501" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B501" s="16"/>
+      <c r="C501" s="16"/>
+      <c r="D501" s="16"/>
       <c r="H501" s="4"/>
     </row>
-    <row r="502" spans="2:8">
-      <c r="B502" s="17"/>
-      <c r="C502" s="17"/>
-      <c r="D502" s="17"/>
+    <row r="502" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B502" s="16"/>
+      <c r="C502" s="16"/>
+      <c r="D502" s="16"/>
       <c r="H502" s="4"/>
     </row>
-    <row r="503" spans="2:8">
-      <c r="B503" s="17"/>
-      <c r="C503" s="17"/>
-      <c r="D503" s="17"/>
+    <row r="503" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B503" s="16"/>
+      <c r="C503" s="16"/>
+      <c r="D503" s="16"/>
       <c r="H503" s="4"/>
     </row>
-    <row r="504" spans="2:8">
-      <c r="B504" s="17"/>
-      <c r="C504" s="17"/>
-      <c r="D504" s="17"/>
+    <row r="504" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B504" s="16"/>
+      <c r="C504" s="16"/>
+      <c r="D504" s="16"/>
       <c r="H504" s="4"/>
     </row>
-    <row r="505" spans="2:8">
-      <c r="B505" s="17"/>
-      <c r="C505" s="17"/>
-      <c r="D505" s="17"/>
+    <row r="505" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B505" s="16"/>
+      <c r="C505" s="16"/>
+      <c r="D505" s="16"/>
       <c r="H505" s="4"/>
     </row>
-    <row r="506" spans="2:8">
-      <c r="B506" s="17"/>
-      <c r="C506" s="17"/>
-      <c r="D506" s="17"/>
+    <row r="506" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B506" s="16"/>
+      <c r="C506" s="16"/>
+      <c r="D506" s="16"/>
       <c r="H506" s="4"/>
     </row>
-    <row r="507" spans="2:8">
-      <c r="B507" s="17"/>
-      <c r="C507" s="17"/>
-      <c r="D507" s="17"/>
+    <row r="507" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B507" s="16"/>
+      <c r="C507" s="16"/>
+      <c r="D507" s="16"/>
       <c r="H507" s="4"/>
     </row>
-    <row r="508" spans="2:8">
-      <c r="B508" s="17"/>
-      <c r="C508" s="17"/>
-      <c r="D508" s="17"/>
+    <row r="508" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B508" s="16"/>
+      <c r="C508" s="16"/>
+      <c r="D508" s="16"/>
       <c r="H508" s="4"/>
     </row>
-    <row r="509" spans="2:8">
-      <c r="B509" s="17"/>
-      <c r="C509" s="17"/>
-      <c r="D509" s="17"/>
+    <row r="509" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B509" s="16"/>
+      <c r="C509" s="16"/>
+      <c r="D509" s="16"/>
       <c r="H509" s="4"/>
     </row>
-    <row r="510" spans="2:8">
-      <c r="B510" s="17"/>
-      <c r="C510" s="17"/>
-      <c r="D510" s="17"/>
+    <row r="510" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B510" s="16"/>
+      <c r="C510" s="16"/>
+      <c r="D510" s="16"/>
       <c r="H510" s="4"/>
     </row>
-    <row r="511" spans="2:8">
-      <c r="B511" s="17"/>
-      <c r="C511" s="17"/>
-      <c r="D511" s="17"/>
+    <row r="511" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B511" s="16"/>
+      <c r="C511" s="16"/>
+      <c r="D511" s="16"/>
       <c r="H511" s="4"/>
     </row>
-    <row r="512" spans="2:8">
-      <c r="B512" s="17"/>
-      <c r="C512" s="17"/>
-      <c r="D512" s="17"/>
+    <row r="512" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B512" s="16"/>
+      <c r="C512" s="16"/>
+      <c r="D512" s="16"/>
       <c r="H512" s="4"/>
     </row>
-    <row r="513" spans="2:8">
-      <c r="B513" s="17"/>
-      <c r="C513" s="17"/>
-      <c r="D513" s="17"/>
+    <row r="513" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B513" s="16"/>
+      <c r="C513" s="16"/>
+      <c r="D513" s="16"/>
       <c r="H513" s="4"/>
     </row>
-    <row r="514" spans="2:8">
-      <c r="B514" s="17"/>
-      <c r="C514" s="17"/>
-      <c r="D514" s="17"/>
+    <row r="514" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B514" s="16"/>
+      <c r="C514" s="16"/>
+      <c r="D514" s="16"/>
       <c r="H514" s="4"/>
     </row>
-    <row r="515" spans="2:8">
-      <c r="B515" s="17"/>
-      <c r="C515" s="17"/>
-      <c r="D515" s="17"/>
+    <row r="515" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B515" s="16"/>
+      <c r="C515" s="16"/>
+      <c r="D515" s="16"/>
       <c r="H515" s="4"/>
     </row>
-    <row r="516" spans="2:8">
-      <c r="B516" s="17"/>
-      <c r="C516" s="17"/>
-      <c r="D516" s="17"/>
+    <row r="516" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B516" s="16"/>
+      <c r="C516" s="16"/>
+      <c r="D516" s="16"/>
       <c r="H516" s="4"/>
     </row>
-    <row r="517" spans="2:8">
-      <c r="B517" s="17"/>
-      <c r="C517" s="17"/>
-      <c r="D517" s="17"/>
+    <row r="517" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B517" s="16"/>
+      <c r="C517" s="16"/>
+      <c r="D517" s="16"/>
       <c r="H517" s="4"/>
     </row>
-    <row r="518" spans="2:8">
-      <c r="B518" s="17"/>
-      <c r="C518" s="17"/>
-      <c r="D518" s="17"/>
+    <row r="518" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B518" s="16"/>
+      <c r="C518" s="16"/>
+      <c r="D518" s="16"/>
       <c r="H518" s="4"/>
     </row>
-    <row r="519" spans="2:8">
-      <c r="B519" s="17"/>
-      <c r="C519" s="17"/>
-      <c r="D519" s="17"/>
+    <row r="519" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B519" s="16"/>
+      <c r="C519" s="16"/>
+      <c r="D519" s="16"/>
       <c r="H519" s="4"/>
     </row>
-    <row r="520" spans="2:8">
-      <c r="B520" s="17"/>
-      <c r="C520" s="17"/>
-      <c r="D520" s="17"/>
+    <row r="520" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B520" s="16"/>
+      <c r="C520" s="16"/>
+      <c r="D520" s="16"/>
       <c r="H520" s="4"/>
     </row>
-    <row r="521" spans="2:8">
-      <c r="B521" s="17"/>
-      <c r="C521" s="17"/>
-      <c r="D521" s="17"/>
+    <row r="521" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B521" s="16"/>
+      <c r="C521" s="16"/>
+      <c r="D521" s="16"/>
       <c r="H521" s="4"/>
     </row>
-    <row r="522" spans="2:8">
-      <c r="B522" s="17"/>
-      <c r="C522" s="17"/>
-      <c r="D522" s="17"/>
+    <row r="522" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B522" s="16"/>
+      <c r="C522" s="16"/>
+      <c r="D522" s="16"/>
       <c r="H522" s="4"/>
     </row>
-    <row r="523" spans="2:8">
-      <c r="B523" s="17"/>
-      <c r="C523" s="17"/>
-      <c r="D523" s="17"/>
+    <row r="523" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B523" s="16"/>
+      <c r="C523" s="16"/>
+      <c r="D523" s="16"/>
       <c r="H523" s="4"/>
     </row>
-    <row r="524" spans="2:8">
-      <c r="B524" s="17"/>
-      <c r="C524" s="17"/>
-      <c r="D524" s="17"/>
+    <row r="524" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B524" s="16"/>
+      <c r="C524" s="16"/>
+      <c r="D524" s="16"/>
       <c r="H524" s="4"/>
     </row>
-    <row r="525" spans="2:8">
-      <c r="B525" s="17"/>
-      <c r="C525" s="17"/>
-      <c r="D525" s="17"/>
+    <row r="525" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B525" s="16"/>
+      <c r="C525" s="16"/>
+      <c r="D525" s="16"/>
       <c r="H525" s="4"/>
     </row>
-    <row r="526" spans="2:8">
-      <c r="B526" s="17"/>
-      <c r="C526" s="17"/>
-      <c r="D526" s="17"/>
+    <row r="526" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B526" s="16"/>
+      <c r="C526" s="16"/>
+      <c r="D526" s="16"/>
       <c r="H526" s="4"/>
     </row>
-    <row r="527" spans="2:8">
-      <c r="B527" s="17"/>
-      <c r="C527" s="17"/>
-      <c r="D527" s="17"/>
+    <row r="527" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B527" s="16"/>
+      <c r="C527" s="16"/>
+      <c r="D527" s="16"/>
       <c r="H527" s="4"/>
     </row>
-    <row r="528" spans="2:8">
-      <c r="B528" s="17"/>
-      <c r="C528" s="17"/>
-      <c r="D528" s="17"/>
+    <row r="528" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B528" s="16"/>
+      <c r="C528" s="16"/>
+      <c r="D528" s="16"/>
       <c r="H528" s="4"/>
     </row>
-    <row r="529" spans="2:8">
-      <c r="B529" s="17"/>
-      <c r="C529" s="17"/>
-      <c r="D529" s="17"/>
+    <row r="529" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B529" s="16"/>
+      <c r="C529" s="16"/>
+      <c r="D529" s="16"/>
       <c r="H529" s="4"/>
     </row>
-    <row r="530" spans="2:8">
-      <c r="B530" s="17"/>
-      <c r="C530" s="17"/>
-      <c r="D530" s="17"/>
+    <row r="530" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B530" s="16"/>
+      <c r="C530" s="16"/>
+      <c r="D530" s="16"/>
       <c r="H530" s="4"/>
     </row>
-    <row r="531" spans="2:8">
-      <c r="B531" s="17"/>
-      <c r="C531" s="17"/>
-      <c r="D531" s="17"/>
+    <row r="531" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B531" s="16"/>
+      <c r="C531" s="16"/>
+      <c r="D531" s="16"/>
       <c r="H531" s="4"/>
     </row>
-    <row r="532" spans="2:8">
-      <c r="B532" s="17"/>
-      <c r="C532" s="17"/>
-      <c r="D532" s="17"/>
+    <row r="532" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B532" s="16"/>
+      <c r="C532" s="16"/>
+      <c r="D532" s="16"/>
       <c r="H532" s="4"/>
     </row>
-    <row r="533" spans="2:8">
-      <c r="B533" s="17"/>
-      <c r="C533" s="17"/>
-      <c r="D533" s="17"/>
+    <row r="533" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B533" s="16"/>
+      <c r="C533" s="16"/>
+      <c r="D533" s="16"/>
       <c r="H533" s="4"/>
     </row>
-    <row r="534" spans="2:8">
-      <c r="B534" s="17"/>
-      <c r="C534" s="17"/>
-      <c r="D534" s="17"/>
+    <row r="534" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B534" s="16"/>
+      <c r="C534" s="16"/>
+      <c r="D534" s="16"/>
       <c r="H534" s="4"/>
     </row>
-    <row r="535" spans="2:8">
-      <c r="B535" s="17"/>
-      <c r="C535" s="17"/>
-      <c r="D535" s="17"/>
+    <row r="535" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B535" s="16"/>
+      <c r="C535" s="16"/>
+      <c r="D535" s="16"/>
       <c r="H535" s="4"/>
     </row>
-    <row r="536" spans="2:8">
-      <c r="B536" s="17"/>
-      <c r="C536" s="17"/>
-      <c r="D536" s="17"/>
+    <row r="536" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B536" s="16"/>
+      <c r="C536" s="16"/>
+      <c r="D536" s="16"/>
       <c r="H536" s="4"/>
     </row>
-    <row r="537" spans="2:8">
-      <c r="B537" s="17"/>
-      <c r="C537" s="17"/>
-      <c r="D537" s="17"/>
+    <row r="537" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B537" s="16"/>
+      <c r="C537" s="16"/>
+      <c r="D537" s="16"/>
       <c r="H537" s="4"/>
     </row>
-    <row r="538" spans="2:8">
-      <c r="B538" s="17"/>
-      <c r="C538" s="17"/>
-      <c r="D538" s="17"/>
+    <row r="538" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B538" s="16"/>
+      <c r="C538" s="16"/>
+      <c r="D538" s="16"/>
       <c r="H538" s="4"/>
     </row>
-    <row r="539" spans="2:8">
-      <c r="B539" s="17"/>
-      <c r="C539" s="17"/>
-      <c r="D539" s="17"/>
+    <row r="539" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B539" s="16"/>
+      <c r="C539" s="16"/>
+      <c r="D539" s="16"/>
       <c r="H539" s="4"/>
     </row>
-    <row r="540" spans="2:8">
-      <c r="B540" s="17"/>
-      <c r="C540" s="17"/>
-      <c r="D540" s="17"/>
+    <row r="540" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B540" s="16"/>
+      <c r="C540" s="16"/>
+      <c r="D540" s="16"/>
       <c r="H540" s="4"/>
     </row>
-    <row r="541" spans="2:8">
-      <c r="B541" s="17"/>
-      <c r="C541" s="17"/>
-      <c r="D541" s="17"/>
+    <row r="541" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B541" s="16"/>
+      <c r="C541" s="16"/>
+      <c r="D541" s="16"/>
       <c r="H541" s="4"/>
     </row>
-    <row r="542" spans="2:8">
-      <c r="B542" s="17"/>
-      <c r="C542" s="17"/>
-      <c r="D542" s="17"/>
+    <row r="542" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B542" s="16"/>
+      <c r="C542" s="16"/>
+      <c r="D542" s="16"/>
       <c r="H542" s="4"/>
     </row>
-    <row r="543" spans="2:8">
-      <c r="B543" s="17"/>
-      <c r="C543" s="17"/>
-      <c r="D543" s="17"/>
+    <row r="543" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B543" s="16"/>
+      <c r="C543" s="16"/>
+      <c r="D543" s="16"/>
       <c r="H543" s="4"/>
     </row>
-    <row r="544" spans="2:8">
-      <c r="B544" s="17"/>
-      <c r="C544" s="17"/>
-      <c r="D544" s="17"/>
+    <row r="544" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B544" s="16"/>
+      <c r="C544" s="16"/>
+      <c r="D544" s="16"/>
       <c r="H544" s="4"/>
     </row>
-    <row r="545" spans="2:8">
-      <c r="B545" s="17"/>
-      <c r="C545" s="17"/>
-      <c r="D545" s="17"/>
+    <row r="545" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B545" s="16"/>
+      <c r="C545" s="16"/>
+      <c r="D545" s="16"/>
       <c r="H545" s="4"/>
     </row>
-    <row r="546" spans="2:8">
-      <c r="B546" s="17"/>
-      <c r="C546" s="17"/>
-      <c r="D546" s="17"/>
+    <row r="546" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B546" s="16"/>
+      <c r="C546" s="16"/>
+      <c r="D546" s="16"/>
       <c r="H546" s="4"/>
     </row>
-    <row r="547" spans="2:8">
-      <c r="B547" s="17"/>
-      <c r="C547" s="17"/>
-      <c r="D547" s="17"/>
+    <row r="547" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B547" s="16"/>
+      <c r="C547" s="16"/>
+      <c r="D547" s="16"/>
       <c r="H547" s="4"/>
     </row>
-    <row r="548" spans="2:8">
-      <c r="B548" s="17"/>
-      <c r="C548" s="17"/>
-      <c r="D548" s="17"/>
+    <row r="548" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B548" s="16"/>
+      <c r="C548" s="16"/>
+      <c r="D548" s="16"/>
       <c r="H548" s="4"/>
     </row>
-    <row r="549" spans="2:8">
-      <c r="B549" s="17"/>
-      <c r="C549" s="17"/>
-      <c r="D549" s="17"/>
+    <row r="549" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B549" s="16"/>
+      <c r="C549" s="16"/>
+      <c r="D549" s="16"/>
       <c r="H549" s="4"/>
     </row>
-    <row r="550" spans="2:8">
-      <c r="B550" s="17"/>
-      <c r="C550" s="17"/>
-      <c r="D550" s="17"/>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B550" s="16"/>
+      <c r="C550" s="16"/>
+      <c r="D550" s="16"/>
       <c r="H550" s="4"/>
     </row>
-    <row r="551" spans="2:8">
-      <c r="B551" s="17"/>
-      <c r="C551" s="17"/>
-      <c r="D551" s="17"/>
+    <row r="551" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B551" s="16"/>
+      <c r="C551" s="16"/>
+      <c r="D551" s="16"/>
       <c r="H551" s="4"/>
     </row>
-    <row r="552" spans="2:8">
-      <c r="B552" s="17"/>
-      <c r="C552" s="17"/>
-      <c r="D552" s="17"/>
+    <row r="552" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B552" s="16"/>
+      <c r="C552" s="16"/>
+      <c r="D552" s="16"/>
       <c r="H552" s="4"/>
     </row>
-    <row r="553" spans="2:8">
-      <c r="B553" s="17"/>
-      <c r="C553" s="17"/>
-      <c r="D553" s="17"/>
+    <row r="553" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B553" s="16"/>
+      <c r="C553" s="16"/>
+      <c r="D553" s="16"/>
       <c r="H553" s="4"/>
     </row>
-    <row r="554" spans="2:8">
-      <c r="B554" s="17"/>
-      <c r="C554" s="17"/>
-      <c r="D554" s="17"/>
+    <row r="554" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B554" s="16"/>
+      <c r="C554" s="16"/>
+      <c r="D554" s="16"/>
       <c r="H554" s="4"/>
     </row>
-    <row r="555" spans="2:8">
-      <c r="B555" s="17"/>
-      <c r="C555" s="17"/>
-      <c r="D555" s="17"/>
+    <row r="555" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B555" s="16"/>
+      <c r="C555" s="16"/>
+      <c r="D555" s="16"/>
       <c r="H555" s="4"/>
     </row>
-    <row r="556" spans="2:8">
-      <c r="B556" s="17"/>
-      <c r="C556" s="17"/>
-      <c r="D556" s="17"/>
+    <row r="556" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B556" s="16"/>
+      <c r="C556" s="16"/>
+      <c r="D556" s="16"/>
       <c r="H556" s="4"/>
     </row>
-    <row r="557" spans="2:8">
-      <c r="B557" s="17"/>
-      <c r="C557" s="17"/>
-      <c r="D557" s="17"/>
+    <row r="557" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B557" s="16"/>
+      <c r="C557" s="16"/>
+      <c r="D557" s="16"/>
       <c r="H557" s="4"/>
     </row>
-    <row r="558" spans="2:8">
-      <c r="B558" s="17"/>
-      <c r="C558" s="17"/>
-      <c r="D558" s="17"/>
+    <row r="558" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B558" s="16"/>
+      <c r="C558" s="16"/>
+      <c r="D558" s="16"/>
       <c r="H558" s="4"/>
     </row>
-    <row r="559" spans="2:8">
-      <c r="B559" s="17"/>
-      <c r="C559" s="17"/>
-      <c r="D559" s="17"/>
+    <row r="559" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B559" s="16"/>
+      <c r="C559" s="16"/>
+      <c r="D559" s="16"/>
       <c r="H559" s="4"/>
     </row>
-    <row r="560" spans="2:8">
-      <c r="B560" s="17"/>
-      <c r="C560" s="17"/>
-      <c r="D560" s="17"/>
+    <row r="560" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B560" s="16"/>
+      <c r="C560" s="16"/>
+      <c r="D560" s="16"/>
       <c r="H560" s="4"/>
     </row>
-    <row r="561" spans="2:8">
-      <c r="B561" s="17"/>
-      <c r="C561" s="17"/>
-      <c r="D561" s="17"/>
+    <row r="561" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B561" s="16"/>
+      <c r="C561" s="16"/>
+      <c r="D561" s="16"/>
       <c r="H561" s="4"/>
     </row>
-    <row r="562" spans="2:8">
-      <c r="B562" s="17"/>
-      <c r="C562" s="17"/>
-      <c r="D562" s="17"/>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B562" s="16"/>
+      <c r="C562" s="16"/>
+      <c r="D562" s="16"/>
       <c r="H562" s="4"/>
     </row>
-    <row r="563" spans="2:8">
-      <c r="B563" s="17"/>
-      <c r="C563" s="17"/>
-      <c r="D563" s="17"/>
+    <row r="563" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B563" s="16"/>
+      <c r="C563" s="16"/>
+      <c r="D563" s="16"/>
       <c r="H563" s="4"/>
     </row>
-    <row r="564" spans="2:8">
-      <c r="B564" s="17"/>
-      <c r="C564" s="17"/>
-      <c r="D564" s="17"/>
+    <row r="564" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B564" s="16"/>
+      <c r="C564" s="16"/>
+      <c r="D564" s="16"/>
       <c r="H564" s="4"/>
     </row>
-    <row r="565" spans="2:8">
-      <c r="B565" s="17"/>
-      <c r="C565" s="17"/>
-      <c r="D565" s="17"/>
+    <row r="565" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B565" s="16"/>
+      <c r="C565" s="16"/>
+      <c r="D565" s="16"/>
       <c r="H565" s="4"/>
     </row>
-    <row r="566" spans="2:8">
-      <c r="B566" s="17"/>
-      <c r="C566" s="17"/>
-      <c r="D566" s="17"/>
+    <row r="566" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B566" s="16"/>
+      <c r="C566" s="16"/>
+      <c r="D566" s="16"/>
       <c r="H566" s="4"/>
     </row>
-    <row r="567" spans="2:8">
-      <c r="B567" s="17"/>
-      <c r="C567" s="17"/>
-      <c r="D567" s="17"/>
+    <row r="567" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B567" s="16"/>
+      <c r="C567" s="16"/>
+      <c r="D567" s="16"/>
       <c r="H567" s="4"/>
     </row>
-    <row r="568" spans="2:8">
-      <c r="B568" s="17"/>
-      <c r="C568" s="17"/>
-      <c r="D568" s="17"/>
+    <row r="568" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B568" s="16"/>
+      <c r="C568" s="16"/>
+      <c r="D568" s="16"/>
       <c r="H568" s="4"/>
     </row>
-    <row r="569" spans="2:8">
-      <c r="B569" s="17"/>
-      <c r="C569" s="17"/>
-      <c r="D569" s="17"/>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B569" s="16"/>
+      <c r="C569" s="16"/>
+      <c r="D569" s="16"/>
       <c r="H569" s="4"/>
     </row>
-    <row r="570" spans="2:8">
-      <c r="B570" s="17"/>
-      <c r="C570" s="17"/>
-      <c r="D570" s="17"/>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B570" s="16"/>
+      <c r="C570" s="16"/>
+      <c r="D570" s="16"/>
       <c r="H570" s="4"/>
     </row>
-    <row r="571" spans="2:8">
-      <c r="B571" s="17"/>
-      <c r="C571" s="17"/>
-      <c r="D571" s="17"/>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B571" s="16"/>
+      <c r="C571" s="16"/>
+      <c r="D571" s="16"/>
       <c r="H571" s="4"/>
     </row>
-    <row r="572" spans="2:8">
-      <c r="B572" s="17"/>
-      <c r="C572" s="17"/>
-      <c r="D572" s="17"/>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B572" s="16"/>
+      <c r="C572" s="16"/>
+      <c r="D572" s="16"/>
       <c r="H572" s="4"/>
     </row>
-    <row r="573" spans="2:8">
-      <c r="B573" s="17"/>
-      <c r="C573" s="17"/>
-      <c r="D573" s="17"/>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B573" s="16"/>
+      <c r="C573" s="16"/>
+      <c r="D573" s="16"/>
       <c r="H573" s="4"/>
     </row>
-    <row r="574" spans="2:8">
-      <c r="B574" s="17"/>
-      <c r="C574" s="17"/>
-      <c r="D574" s="17"/>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B574" s="16"/>
+      <c r="C574" s="16"/>
+      <c r="D574" s="16"/>
       <c r="H574" s="4"/>
     </row>
-    <row r="575" spans="2:8">
-      <c r="B575" s="17"/>
-      <c r="C575" s="17"/>
-      <c r="D575" s="17"/>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B575" s="16"/>
+      <c r="C575" s="16"/>
+      <c r="D575" s="16"/>
       <c r="H575" s="4"/>
     </row>
-    <row r="576" spans="2:8">
-      <c r="B576" s="17"/>
-      <c r="C576" s="17"/>
-      <c r="D576" s="17"/>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B576" s="16"/>
+      <c r="C576" s="16"/>
+      <c r="D576" s="16"/>
       <c r="H576" s="4"/>
     </row>
-    <row r="577" spans="2:8">
-      <c r="B577" s="17"/>
-      <c r="C577" s="17"/>
-      <c r="D577" s="17"/>
+    <row r="577" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B577" s="16"/>
+      <c r="C577" s="16"/>
+      <c r="D577" s="16"/>
       <c r="H577" s="4"/>
     </row>
-    <row r="578" spans="2:8">
-      <c r="B578" s="17"/>
-      <c r="C578" s="17"/>
-      <c r="D578" s="17"/>
+    <row r="578" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B578" s="16"/>
+      <c r="C578" s="16"/>
+      <c r="D578" s="16"/>
       <c r="H578" s="4"/>
     </row>
-    <row r="579" spans="2:8">
-      <c r="B579" s="17"/>
-      <c r="C579" s="17"/>
-      <c r="D579" s="17"/>
+    <row r="579" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B579" s="16"/>
+      <c r="C579" s="16"/>
+      <c r="D579" s="16"/>
       <c r="H579" s="4"/>
     </row>
-    <row r="580" spans="2:8">
-      <c r="B580" s="17"/>
-      <c r="C580" s="17"/>
-      <c r="D580" s="17"/>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B580" s="16"/>
+      <c r="C580" s="16"/>
+      <c r="D580" s="16"/>
       <c r="H580" s="4"/>
     </row>
-    <row r="581" spans="2:8">
-      <c r="B581" s="17"/>
-      <c r="C581" s="17"/>
-      <c r="D581" s="17"/>
+    <row r="581" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B581" s="16"/>
+      <c r="C581" s="16"/>
+      <c r="D581" s="16"/>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="2:8">
-      <c r="B582" s="17"/>
-      <c r="C582" s="17"/>
-      <c r="D582" s="17"/>
+    <row r="582" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B582" s="16"/>
+      <c r="C582" s="16"/>
+      <c r="D582" s="16"/>
       <c r="H582" s="4"/>
     </row>
-    <row r="583" spans="2:8">
-      <c r="B583" s="17"/>
-      <c r="C583" s="17"/>
-      <c r="D583" s="17"/>
+    <row r="583" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B583" s="16"/>
+      <c r="C583" s="16"/>
+      <c r="D583" s="16"/>
       <c r="H583" s="4"/>
     </row>
-    <row r="584" spans="2:8">
-      <c r="B584" s="17"/>
-      <c r="C584" s="17"/>
-      <c r="D584" s="17"/>
+    <row r="584" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B584" s="16"/>
+      <c r="C584" s="16"/>
+      <c r="D584" s="16"/>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="2:8">
-      <c r="B585" s="17"/>
-      <c r="C585" s="17"/>
-      <c r="D585" s="17"/>
+    <row r="585" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B585" s="16"/>
+      <c r="C585" s="16"/>
+      <c r="D585" s="16"/>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="2:8">
-      <c r="B586" s="17"/>
-      <c r="C586" s="17"/>
-      <c r="D586" s="17"/>
+    <row r="586" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B586" s="16"/>
+      <c r="C586" s="16"/>
+      <c r="D586" s="16"/>
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="2:8">
-      <c r="B587" s="17"/>
-      <c r="C587" s="17"/>
-      <c r="D587" s="17"/>
+    <row r="587" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B587" s="16"/>
+      <c r="C587" s="16"/>
+      <c r="D587" s="16"/>
       <c r="H587" s="4"/>
     </row>
-    <row r="588" spans="2:8">
-      <c r="B588" s="17"/>
-      <c r="C588" s="17"/>
-      <c r="D588" s="17"/>
+    <row r="588" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B588" s="16"/>
+      <c r="C588" s="16"/>
+      <c r="D588" s="16"/>
       <c r="H588" s="4"/>
     </row>
-    <row r="589" spans="2:8">
-      <c r="B589" s="17"/>
-      <c r="C589" s="17"/>
-      <c r="D589" s="17"/>
+    <row r="589" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B589" s="16"/>
+      <c r="C589" s="16"/>
+      <c r="D589" s="16"/>
       <c r="H589" s="4"/>
     </row>
-    <row r="590" spans="2:8">
-      <c r="B590" s="17"/>
-      <c r="C590" s="17"/>
-      <c r="D590" s="17"/>
+    <row r="590" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B590" s="16"/>
+      <c r="C590" s="16"/>
+      <c r="D590" s="16"/>
       <c r="H590" s="4"/>
     </row>
-    <row r="591" spans="2:8">
-      <c r="B591" s="17"/>
-      <c r="C591" s="17"/>
-      <c r="D591" s="17"/>
+    <row r="591" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B591" s="16"/>
+      <c r="C591" s="16"/>
+      <c r="D591" s="16"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="2:8">
-      <c r="B592" s="17"/>
-      <c r="C592" s="17"/>
-      <c r="D592" s="17"/>
+    <row r="592" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B592" s="16"/>
+      <c r="C592" s="16"/>
+      <c r="D592" s="16"/>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="2:8">
-      <c r="B593" s="17"/>
-      <c r="C593" s="17"/>
-      <c r="D593" s="17"/>
+    <row r="593" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B593" s="16"/>
+      <c r="C593" s="16"/>
+      <c r="D593" s="16"/>
       <c r="H593" s="4"/>
     </row>
-    <row r="594" spans="2:8">
-      <c r="B594" s="17"/>
-      <c r="C594" s="17"/>
-      <c r="D594" s="17"/>
+    <row r="594" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B594" s="16"/>
+      <c r="C594" s="16"/>
+      <c r="D594" s="16"/>
       <c r="H594" s="4"/>
     </row>
-    <row r="595" spans="2:8">
-      <c r="B595" s="17"/>
-      <c r="C595" s="17"/>
-      <c r="D595" s="17"/>
+    <row r="595" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B595" s="16"/>
+      <c r="C595" s="16"/>
+      <c r="D595" s="16"/>
       <c r="H595" s="4"/>
     </row>
-    <row r="596" spans="2:8">
-      <c r="B596" s="17"/>
-      <c r="C596" s="17"/>
-      <c r="D596" s="17"/>
+    <row r="596" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B596" s="16"/>
+      <c r="C596" s="16"/>
+      <c r="D596" s="16"/>
       <c r="H596" s="4"/>
     </row>
-    <row r="597" spans="2:8">
-      <c r="B597" s="17"/>
-      <c r="C597" s="17"/>
-      <c r="D597" s="17"/>
+    <row r="597" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B597" s="16"/>
+      <c r="C597" s="16"/>
+      <c r="D597" s="16"/>
       <c r="H597" s="4"/>
     </row>
-    <row r="598" spans="2:8">
-      <c r="B598" s="17"/>
-      <c r="C598" s="17"/>
-      <c r="D598" s="17"/>
+    <row r="598" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B598" s="16"/>
+      <c r="C598" s="16"/>
+      <c r="D598" s="16"/>
       <c r="H598" s="4"/>
     </row>
-    <row r="599" spans="2:8">
-      <c r="B599" s="17"/>
-      <c r="C599" s="17"/>
-      <c r="D599" s="17"/>
+    <row r="599" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B599" s="16"/>
+      <c r="C599" s="16"/>
+      <c r="D599" s="16"/>
       <c r="H599" s="4"/>
     </row>
-    <row r="600" spans="2:8">
-      <c r="B600" s="17"/>
-      <c r="C600" s="17"/>
-      <c r="D600" s="17"/>
+    <row r="600" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B600" s="16"/>
+      <c r="C600" s="16"/>
+      <c r="D600" s="16"/>
       <c r="H600" s="4"/>
     </row>
-    <row r="601" spans="2:8">
-      <c r="B601" s="17"/>
-      <c r="C601" s="17"/>
-      <c r="D601" s="17"/>
+    <row r="601" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B601" s="16"/>
+      <c r="C601" s="16"/>
+      <c r="D601" s="16"/>
       <c r="H601" s="4"/>
     </row>
-    <row r="602" spans="2:8">
-      <c r="B602" s="17"/>
-      <c r="C602" s="17"/>
-      <c r="D602" s="17"/>
+    <row r="602" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B602" s="16"/>
+      <c r="C602" s="16"/>
+      <c r="D602" s="16"/>
       <c r="H602" s="4"/>
     </row>
-    <row r="603" spans="2:8">
-      <c r="B603" s="17"/>
-      <c r="C603" s="17"/>
-      <c r="D603" s="17"/>
+    <row r="603" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B603" s="16"/>
+      <c r="C603" s="16"/>
+      <c r="D603" s="16"/>
       <c r="H603" s="4"/>
     </row>
-    <row r="604" spans="2:8">
-      <c r="B604" s="17"/>
-      <c r="C604" s="17"/>
-      <c r="D604" s="17"/>
+    <row r="604" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B604" s="16"/>
+      <c r="C604" s="16"/>
+      <c r="D604" s="16"/>
       <c r="H604" s="4"/>
     </row>
-    <row r="605" spans="2:8">
-      <c r="B605" s="17"/>
-      <c r="C605" s="17"/>
-      <c r="D605" s="17"/>
+    <row r="605" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B605" s="16"/>
+      <c r="C605" s="16"/>
+      <c r="D605" s="16"/>
       <c r="H605" s="4"/>
     </row>
-    <row r="606" spans="2:8">
-      <c r="B606" s="17"/>
-      <c r="C606" s="17"/>
-      <c r="D606" s="17"/>
+    <row r="606" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B606" s="16"/>
+      <c r="C606" s="16"/>
+      <c r="D606" s="16"/>
       <c r="H606" s="4"/>
     </row>
-    <row r="607" spans="2:8">
-      <c r="B607" s="17"/>
-      <c r="C607" s="17"/>
-      <c r="D607" s="17"/>
+    <row r="607" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B607" s="16"/>
+      <c r="C607" s="16"/>
+      <c r="D607" s="16"/>
       <c r="H607" s="4"/>
     </row>
-    <row r="608" spans="2:8">
-      <c r="B608" s="17"/>
-      <c r="C608" s="17"/>
-      <c r="D608" s="17"/>
+    <row r="608" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B608" s="16"/>
+      <c r="C608" s="16"/>
+      <c r="D608" s="16"/>
       <c r="H608" s="4"/>
     </row>
-    <row r="609" spans="2:8">
-      <c r="B609" s="17"/>
-      <c r="C609" s="17"/>
-      <c r="D609" s="17"/>
+    <row r="609" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B609" s="16"/>
+      <c r="C609" s="16"/>
+      <c r="D609" s="16"/>
       <c r="H609" s="4"/>
     </row>
-    <row r="610" spans="2:8">
-      <c r="B610" s="17"/>
-      <c r="C610" s="17"/>
-      <c r="D610" s="17"/>
+    <row r="610" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B610" s="16"/>
+      <c r="C610" s="16"/>
+      <c r="D610" s="16"/>
       <c r="H610" s="4"/>
     </row>
-    <row r="611" spans="2:8">
-      <c r="B611" s="17"/>
-      <c r="C611" s="17"/>
-      <c r="D611" s="17"/>
+    <row r="611" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B611" s="16"/>
+      <c r="C611" s="16"/>
+      <c r="D611" s="16"/>
       <c r="H611" s="4"/>
     </row>
-    <row r="612" spans="2:8">
-      <c r="B612" s="17"/>
-      <c r="C612" s="17"/>
-      <c r="D612" s="17"/>
+    <row r="612" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B612" s="16"/>
+      <c r="C612" s="16"/>
+      <c r="D612" s="16"/>
       <c r="H612" s="4"/>
     </row>
-    <row r="613" spans="2:8">
-      <c r="B613" s="17"/>
-      <c r="C613" s="17"/>
-      <c r="D613" s="17"/>
+    <row r="613" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B613" s="16"/>
+      <c r="C613" s="16"/>
+      <c r="D613" s="16"/>
       <c r="H613" s="4"/>
     </row>
-    <row r="614" spans="2:8">
-      <c r="B614" s="17"/>
-      <c r="C614" s="17"/>
-      <c r="D614" s="17"/>
+    <row r="614" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B614" s="16"/>
+      <c r="C614" s="16"/>
+      <c r="D614" s="16"/>
       <c r="H614" s="4"/>
     </row>
-    <row r="615" spans="2:8">
-      <c r="B615" s="17"/>
-      <c r="C615" s="17"/>
-      <c r="D615" s="17"/>
+    <row r="615" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B615" s="16"/>
+      <c r="C615" s="16"/>
+      <c r="D615" s="16"/>
       <c r="H615" s="4"/>
     </row>
-    <row r="616" spans="2:8">
-      <c r="B616" s="17"/>
-      <c r="C616" s="17"/>
-      <c r="D616" s="17"/>
+    <row r="616" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B616" s="16"/>
+      <c r="C616" s="16"/>
+      <c r="D616" s="16"/>
       <c r="H616" s="4"/>
     </row>
-    <row r="617" spans="2:8">
-      <c r="B617" s="17"/>
-      <c r="C617" s="17"/>
-      <c r="D617" s="17"/>
+    <row r="617" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B617" s="16"/>
+      <c r="C617" s="16"/>
+      <c r="D617" s="16"/>
       <c r="H617" s="4"/>
     </row>
-    <row r="618" spans="2:8">
-      <c r="B618" s="17"/>
-      <c r="C618" s="17"/>
-      <c r="D618" s="17"/>
+    <row r="618" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B618" s="16"/>
+      <c r="C618" s="16"/>
+      <c r="D618" s="16"/>
       <c r="H618" s="4"/>
     </row>
-    <row r="619" spans="2:8">
-      <c r="B619" s="17"/>
-      <c r="C619" s="17"/>
-      <c r="D619" s="17"/>
+    <row r="619" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B619" s="16"/>
+      <c r="C619" s="16"/>
+      <c r="D619" s="16"/>
       <c r="H619" s="4"/>
     </row>
-    <row r="620" spans="2:8">
-      <c r="B620" s="17"/>
-      <c r="C620" s="17"/>
-      <c r="D620" s="17"/>
+    <row r="620" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B620" s="16"/>
+      <c r="C620" s="16"/>
+      <c r="D620" s="16"/>
       <c r="H620" s="4"/>
     </row>
-    <row r="621" spans="2:8">
-      <c r="B621" s="17"/>
-      <c r="C621" s="17"/>
-      <c r="D621" s="17"/>
+    <row r="621" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B621" s="16"/>
+      <c r="C621" s="16"/>
+      <c r="D621" s="16"/>
       <c r="H621" s="4"/>
     </row>
-    <row r="622" spans="2:8">
-      <c r="B622" s="17"/>
-      <c r="C622" s="17"/>
-      <c r="D622" s="17"/>
+    <row r="622" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B622" s="16"/>
+      <c r="C622" s="16"/>
+      <c r="D622" s="16"/>
       <c r="H622" s="4"/>
     </row>
-    <row r="623" spans="2:8">
-      <c r="B623" s="17"/>
-      <c r="C623" s="17"/>
-      <c r="D623" s="17"/>
+    <row r="623" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B623" s="16"/>
+      <c r="C623" s="16"/>
+      <c r="D623" s="16"/>
       <c r="H623" s="4"/>
     </row>
-    <row r="624" spans="2:8">
-      <c r="B624" s="17"/>
-      <c r="C624" s="17"/>
-      <c r="D624" s="17"/>
+    <row r="624" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B624" s="16"/>
+      <c r="C624" s="16"/>
+      <c r="D624" s="16"/>
       <c r="H624" s="4"/>
     </row>
-    <row r="625" spans="2:8">
-      <c r="B625" s="17"/>
-      <c r="C625" s="17"/>
-      <c r="D625" s="17"/>
+    <row r="625" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B625" s="16"/>
+      <c r="C625" s="16"/>
+      <c r="D625" s="16"/>
       <c r="H625" s="4"/>
     </row>
-    <row r="626" spans="2:8">
-      <c r="B626" s="17"/>
-      <c r="C626" s="17"/>
-      <c r="D626" s="17"/>
+    <row r="626" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B626" s="16"/>
+      <c r="C626" s="16"/>
+      <c r="D626" s="16"/>
       <c r="H626" s="4"/>
     </row>
-    <row r="627" spans="2:8">
-      <c r="B627" s="17"/>
-      <c r="C627" s="17"/>
-      <c r="D627" s="17"/>
+    <row r="627" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B627" s="16"/>
+      <c r="C627" s="16"/>
+      <c r="D627" s="16"/>
       <c r="H627" s="4"/>
     </row>
-    <row r="628" spans="2:8">
-      <c r="B628" s="17"/>
-      <c r="C628" s="17"/>
-      <c r="D628" s="17"/>
+    <row r="628" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B628" s="16"/>
+      <c r="C628" s="16"/>
+      <c r="D628" s="16"/>
       <c r="H628" s="4"/>
     </row>
-    <row r="629" spans="2:8">
-      <c r="B629" s="17"/>
-      <c r="C629" s="17"/>
-      <c r="D629" s="17"/>
+    <row r="629" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B629" s="16"/>
+      <c r="C629" s="16"/>
+      <c r="D629" s="16"/>
       <c r="H629" s="4"/>
     </row>
-    <row r="630" spans="2:8">
-      <c r="B630" s="17"/>
-      <c r="C630" s="17"/>
-      <c r="D630" s="17"/>
+    <row r="630" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B630" s="16"/>
+      <c r="C630" s="16"/>
+      <c r="D630" s="16"/>
       <c r="H630" s="4"/>
     </row>
-    <row r="631" spans="2:8">
-      <c r="B631" s="17"/>
-      <c r="C631" s="17"/>
-      <c r="D631" s="17"/>
+    <row r="631" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B631" s="16"/>
+      <c r="C631" s="16"/>
+      <c r="D631" s="16"/>
       <c r="H631" s="4"/>
     </row>
-    <row r="632" spans="2:8">
-      <c r="B632" s="17"/>
-      <c r="C632" s="17"/>
-      <c r="D632" s="17"/>
+    <row r="632" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B632" s="16"/>
+      <c r="C632" s="16"/>
+      <c r="D632" s="16"/>
       <c r="H632" s="4"/>
     </row>
-    <row r="633" spans="2:8">
-      <c r="B633" s="17"/>
-      <c r="C633" s="17"/>
-      <c r="D633" s="17"/>
+    <row r="633" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B633" s="16"/>
+      <c r="C633" s="16"/>
+      <c r="D633" s="16"/>
       <c r="H633" s="4"/>
     </row>
-    <row r="634" spans="2:8">
-      <c r="B634" s="17"/>
-      <c r="C634" s="17"/>
-      <c r="D634" s="17"/>
+    <row r="634" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B634" s="16"/>
+      <c r="C634" s="16"/>
+      <c r="D634" s="16"/>
       <c r="H634" s="4"/>
     </row>
-    <row r="635" spans="2:8">
-      <c r="B635" s="17"/>
-      <c r="C635" s="17"/>
-      <c r="D635" s="17"/>
+    <row r="635" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B635" s="16"/>
+      <c r="C635" s="16"/>
+      <c r="D635" s="16"/>
       <c r="H635" s="4"/>
     </row>
-    <row r="636" spans="2:8">
-      <c r="B636" s="17"/>
-      <c r="C636" s="17"/>
-      <c r="D636" s="17"/>
+    <row r="636" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B636" s="16"/>
+      <c r="C636" s="16"/>
+      <c r="D636" s="16"/>
       <c r="H636" s="4"/>
     </row>
-    <row r="637" spans="2:8">
-      <c r="B637" s="17"/>
-      <c r="C637" s="17"/>
-      <c r="D637" s="17"/>
+    <row r="637" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B637" s="16"/>
+      <c r="C637" s="16"/>
+      <c r="D637" s="16"/>
       <c r="H637" s="4"/>
     </row>
-    <row r="638" spans="2:8">
-      <c r="B638" s="17"/>
-      <c r="C638" s="17"/>
-      <c r="D638" s="17"/>
+    <row r="638" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B638" s="16"/>
+      <c r="C638" s="16"/>
+      <c r="D638" s="16"/>
       <c r="H638" s="4"/>
     </row>
-    <row r="639" spans="2:8">
-      <c r="B639" s="17"/>
-      <c r="C639" s="17"/>
-      <c r="D639" s="17"/>
+    <row r="639" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B639" s="16"/>
+      <c r="C639" s="16"/>
+      <c r="D639" s="16"/>
       <c r="H639" s="4"/>
     </row>
-    <row r="640" spans="2:8">
-      <c r="B640" s="17"/>
-      <c r="C640" s="17"/>
-      <c r="D640" s="17"/>
+    <row r="640" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B640" s="16"/>
+      <c r="C640" s="16"/>
+      <c r="D640" s="16"/>
       <c r="H640" s="4"/>
     </row>
-    <row r="641" spans="2:8">
-      <c r="B641" s="17"/>
-      <c r="C641" s="17"/>
-      <c r="D641" s="17"/>
+    <row r="641" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B641" s="16"/>
+      <c r="C641" s="16"/>
+      <c r="D641" s="16"/>
       <c r="H641" s="4"/>
     </row>
-    <row r="642" spans="2:8">
-      <c r="B642" s="17"/>
-      <c r="C642" s="17"/>
-      <c r="D642" s="17"/>
+    <row r="642" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B642" s="16"/>
+      <c r="C642" s="16"/>
+      <c r="D642" s="16"/>
       <c r="H642" s="4"/>
     </row>
-    <row r="643" spans="2:8">
-      <c r="B643" s="17"/>
-      <c r="C643" s="17"/>
-      <c r="D643" s="17"/>
+    <row r="643" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B643" s="16"/>
+      <c r="C643" s="16"/>
+      <c r="D643" s="16"/>
       <c r="H643" s="4"/>
     </row>
-    <row r="644" spans="2:8">
-      <c r="B644" s="17"/>
-      <c r="C644" s="17"/>
-      <c r="D644" s="17"/>
+    <row r="644" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B644" s="16"/>
+      <c r="C644" s="16"/>
+      <c r="D644" s="16"/>
       <c r="H644" s="4"/>
     </row>
-    <row r="645" spans="2:8">
-      <c r="B645" s="17"/>
-      <c r="C645" s="17"/>
-      <c r="D645" s="17"/>
+    <row r="645" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B645" s="16"/>
+      <c r="C645" s="16"/>
+      <c r="D645" s="16"/>
       <c r="H645" s="4"/>
     </row>
-    <row r="646" spans="2:8">
-      <c r="B646" s="17"/>
-      <c r="C646" s="17"/>
-      <c r="D646" s="17"/>
+    <row r="646" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B646" s="16"/>
+      <c r="C646" s="16"/>
+      <c r="D646" s="16"/>
       <c r="H646" s="4"/>
     </row>
-    <row r="647" spans="2:8">
-      <c r="B647" s="17"/>
-      <c r="C647" s="17"/>
-      <c r="D647" s="17"/>
+    <row r="647" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B647" s="16"/>
+      <c r="C647" s="16"/>
+      <c r="D647" s="16"/>
       <c r="H647" s="4"/>
     </row>
-    <row r="648" spans="2:8">
-      <c r="B648" s="17"/>
-      <c r="C648" s="17"/>
-      <c r="D648" s="17"/>
+    <row r="648" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B648" s="16"/>
+      <c r="C648" s="16"/>
+      <c r="D648" s="16"/>
       <c r="H648" s="4"/>
     </row>
-    <row r="649" spans="2:8">
-      <c r="B649" s="17"/>
-      <c r="C649" s="17"/>
-      <c r="D649" s="17"/>
+    <row r="649" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B649" s="16"/>
+      <c r="C649" s="16"/>
+      <c r="D649" s="16"/>
       <c r="H649" s="4"/>
     </row>
-    <row r="650" spans="2:8">
-      <c r="B650" s="17"/>
-      <c r="C650" s="17"/>
-      <c r="D650" s="17"/>
+    <row r="650" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B650" s="16"/>
+      <c r="C650" s="16"/>
+      <c r="D650" s="16"/>
       <c r="H650" s="4"/>
     </row>
-    <row r="651" spans="2:8">
-      <c r="B651" s="17"/>
-      <c r="C651" s="17"/>
-      <c r="D651" s="17"/>
+    <row r="651" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B651" s="16"/>
+      <c r="C651" s="16"/>
+      <c r="D651" s="16"/>
       <c r="H651" s="4"/>
     </row>
-    <row r="652" spans="2:8">
-      <c r="B652" s="17"/>
-      <c r="C652" s="17"/>
-      <c r="D652" s="17"/>
+    <row r="652" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B652" s="16"/>
+      <c r="C652" s="16"/>
+      <c r="D652" s="16"/>
       <c r="H652" s="4"/>
     </row>
-    <row r="653" spans="2:8">
-      <c r="B653" s="17"/>
-      <c r="C653" s="17"/>
-      <c r="D653" s="17"/>
+    <row r="653" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B653" s="16"/>
+      <c r="C653" s="16"/>
+      <c r="D653" s="16"/>
       <c r="H653" s="4"/>
     </row>
-    <row r="654" spans="2:8">
-      <c r="B654" s="17"/>
-      <c r="C654" s="17"/>
-      <c r="D654" s="17"/>
+    <row r="654" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B654" s="16"/>
+      <c r="C654" s="16"/>
+      <c r="D654" s="16"/>
       <c r="H654" s="4"/>
     </row>
-    <row r="655" spans="2:8">
-      <c r="B655" s="17"/>
-      <c r="C655" s="17"/>
-      <c r="D655" s="17"/>
+    <row r="655" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B655" s="16"/>
+      <c r="C655" s="16"/>
+      <c r="D655" s="16"/>
       <c r="H655" s="4"/>
     </row>
-    <row r="656" spans="2:8">
-      <c r="B656" s="17"/>
-      <c r="C656" s="17"/>
-      <c r="D656" s="17"/>
+    <row r="656" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B656" s="16"/>
+      <c r="C656" s="16"/>
+      <c r="D656" s="16"/>
       <c r="H656" s="4"/>
     </row>
-    <row r="657" spans="2:8">
-      <c r="B657" s="17"/>
-      <c r="C657" s="17"/>
-      <c r="D657" s="17"/>
+    <row r="657" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B657" s="16"/>
+      <c r="C657" s="16"/>
+      <c r="D657" s="16"/>
       <c r="H657" s="4"/>
     </row>
-    <row r="658" spans="2:8">
-      <c r="B658" s="17"/>
-      <c r="C658" s="17"/>
-      <c r="D658" s="17"/>
+    <row r="658" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B658" s="16"/>
+      <c r="C658" s="16"/>
+      <c r="D658" s="16"/>
       <c r="H658" s="4"/>
     </row>
-    <row r="659" spans="2:8">
-      <c r="B659" s="17"/>
-      <c r="C659" s="17"/>
-      <c r="D659" s="17"/>
+    <row r="659" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B659" s="16"/>
+      <c r="C659" s="16"/>
+      <c r="D659" s="16"/>
       <c r="H659" s="4"/>
     </row>
-    <row r="660" spans="2:8">
-      <c r="B660" s="17"/>
-      <c r="C660" s="17"/>
-      <c r="D660" s="17"/>
+    <row r="660" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B660" s="16"/>
+      <c r="C660" s="16"/>
+      <c r="D660" s="16"/>
       <c r="H660" s="4"/>
     </row>
-    <row r="661" spans="2:8">
-      <c r="B661" s="17"/>
-      <c r="C661" s="17"/>
-      <c r="D661" s="17"/>
+    <row r="661" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B661" s="16"/>
+      <c r="C661" s="16"/>
+      <c r="D661" s="16"/>
       <c r="H661" s="4"/>
     </row>
-    <row r="662" spans="2:8">
-      <c r="B662" s="17"/>
-      <c r="C662" s="17"/>
-      <c r="D662" s="17"/>
+    <row r="662" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B662" s="16"/>
+      <c r="C662" s="16"/>
+      <c r="D662" s="16"/>
       <c r="H662" s="4"/>
     </row>
-    <row r="663" spans="2:8">
-      <c r="B663" s="17"/>
-      <c r="C663" s="17"/>
-      <c r="D663" s="17"/>
+    <row r="663" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B663" s="16"/>
+      <c r="C663" s="16"/>
+      <c r="D663" s="16"/>
       <c r="H663" s="4"/>
     </row>
-    <row r="664" spans="2:8">
-      <c r="B664" s="17"/>
-      <c r="C664" s="17"/>
-      <c r="D664" s="17"/>
+    <row r="664" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B664" s="16"/>
+      <c r="C664" s="16"/>
+      <c r="D664" s="16"/>
       <c r="H664" s="4"/>
     </row>
-    <row r="665" spans="2:8">
-      <c r="B665" s="17"/>
-      <c r="C665" s="17"/>
-      <c r="D665" s="17"/>
+    <row r="665" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B665" s="16"/>
+      <c r="C665" s="16"/>
+      <c r="D665" s="16"/>
       <c r="H665" s="4"/>
     </row>
-    <row r="666" spans="2:8">
-      <c r="B666" s="17"/>
-      <c r="C666" s="17"/>
-      <c r="D666" s="17"/>
+    <row r="666" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B666" s="16"/>
+      <c r="C666" s="16"/>
+      <c r="D666" s="16"/>
       <c r="H666" s="4"/>
     </row>
-    <row r="667" spans="2:8">
-      <c r="B667" s="17"/>
-      <c r="C667" s="17"/>
-      <c r="D667" s="17"/>
+    <row r="667" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B667" s="16"/>
+      <c r="C667" s="16"/>
+      <c r="D667" s="16"/>
       <c r="H667" s="4"/>
     </row>
-    <row r="668" spans="2:8">
-      <c r="B668" s="17"/>
-      <c r="C668" s="17"/>
-      <c r="D668" s="17"/>
+    <row r="668" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B668" s="16"/>
+      <c r="C668" s="16"/>
+      <c r="D668" s="16"/>
       <c r="H668" s="4"/>
     </row>
-    <row r="669" spans="2:8">
-      <c r="B669" s="17"/>
-      <c r="C669" s="17"/>
-      <c r="D669" s="17"/>
+    <row r="669" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B669" s="16"/>
+      <c r="C669" s="16"/>
+      <c r="D669" s="16"/>
       <c r="H669" s="4"/>
     </row>
-    <row r="670" spans="2:8">
-      <c r="B670" s="17"/>
-      <c r="C670" s="17"/>
-      <c r="D670" s="17"/>
+    <row r="670" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B670" s="16"/>
+      <c r="C670" s="16"/>
+      <c r="D670" s="16"/>
       <c r="H670" s="4"/>
     </row>
-    <row r="671" spans="2:8">
-      <c r="B671" s="17"/>
-      <c r="C671" s="17"/>
-      <c r="D671" s="17"/>
+    <row r="671" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B671" s="16"/>
+      <c r="C671" s="16"/>
+      <c r="D671" s="16"/>
       <c r="H671" s="4"/>
     </row>
-    <row r="672" spans="2:8">
-      <c r="B672" s="17"/>
-      <c r="C672" s="17"/>
-      <c r="D672" s="17"/>
+    <row r="672" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B672" s="16"/>
+      <c r="C672" s="16"/>
+      <c r="D672" s="16"/>
       <c r="H672" s="4"/>
     </row>
-    <row r="673" spans="2:8">
-      <c r="B673" s="17"/>
-      <c r="C673" s="17"/>
-      <c r="D673" s="17"/>
+    <row r="673" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B673" s="16"/>
+      <c r="C673" s="16"/>
+      <c r="D673" s="16"/>
       <c r="H673" s="4"/>
     </row>
-    <row r="674" spans="2:8">
-      <c r="B674" s="17"/>
-      <c r="C674" s="17"/>
-      <c r="D674" s="17"/>
+    <row r="674" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B674" s="16"/>
+      <c r="C674" s="16"/>
+      <c r="D674" s="16"/>
       <c r="H674" s="4"/>
     </row>
-    <row r="675" spans="2:8">
-      <c r="B675" s="17"/>
-      <c r="C675" s="17"/>
-      <c r="D675" s="17"/>
+    <row r="675" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B675" s="16"/>
+      <c r="C675" s="16"/>
+      <c r="D675" s="16"/>
       <c r="H675" s="4"/>
     </row>
-    <row r="676" spans="2:8">
-      <c r="B676" s="17"/>
-      <c r="C676" s="17"/>
-      <c r="D676" s="17"/>
+    <row r="676" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B676" s="16"/>
+      <c r="C676" s="16"/>
+      <c r="D676" s="16"/>
       <c r="H676" s="4"/>
     </row>
-    <row r="677" spans="2:8">
-      <c r="B677" s="17"/>
-      <c r="C677" s="17"/>
-      <c r="D677" s="17"/>
+    <row r="677" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B677" s="16"/>
+      <c r="C677" s="16"/>
+      <c r="D677" s="16"/>
       <c r="H677" s="4"/>
     </row>
-    <row r="678" spans="2:8">
-      <c r="B678" s="17"/>
-      <c r="C678" s="17"/>
-      <c r="D678" s="17"/>
+    <row r="678" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B678" s="16"/>
+      <c r="C678" s="16"/>
+      <c r="D678" s="16"/>
       <c r="H678" s="4"/>
     </row>
-    <row r="679" spans="2:8">
-      <c r="B679" s="17"/>
-      <c r="C679" s="17"/>
-      <c r="D679" s="17"/>
+    <row r="679" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B679" s="16"/>
+      <c r="C679" s="16"/>
+      <c r="D679" s="16"/>
       <c r="H679" s="4"/>
     </row>
-    <row r="680" spans="2:8">
-      <c r="B680" s="17"/>
-      <c r="C680" s="17"/>
-      <c r="D680" s="17"/>
+    <row r="680" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B680" s="16"/>
+      <c r="C680" s="16"/>
+      <c r="D680" s="16"/>
       <c r="H680" s="4"/>
     </row>
-    <row r="681" spans="2:8">
-      <c r="B681" s="17"/>
-      <c r="C681" s="17"/>
-      <c r="D681" s="17"/>
+    <row r="681" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B681" s="16"/>
+      <c r="C681" s="16"/>
+      <c r="D681" s="16"/>
       <c r="H681" s="4"/>
     </row>
-    <row r="682" spans="2:8">
-      <c r="B682" s="17"/>
-      <c r="C682" s="17"/>
-      <c r="D682" s="17"/>
+    <row r="682" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B682" s="16"/>
+      <c r="C682" s="16"/>
+      <c r="D682" s="16"/>
       <c r="H682" s="4"/>
     </row>
-    <row r="683" spans="2:8">
-      <c r="B683" s="17"/>
-      <c r="C683" s="17"/>
-      <c r="D683" s="17"/>
+    <row r="683" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B683" s="16"/>
+      <c r="C683" s="16"/>
+      <c r="D683" s="16"/>
       <c r="H683" s="4"/>
     </row>
-    <row r="684" spans="2:8">
-      <c r="B684" s="17"/>
-      <c r="C684" s="17"/>
-      <c r="D684" s="17"/>
+    <row r="684" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B684" s="16"/>
+      <c r="C684" s="16"/>
+      <c r="D684" s="16"/>
       <c r="H684" s="4"/>
     </row>
-    <row r="685" spans="2:8">
-      <c r="B685" s="17"/>
-      <c r="C685" s="17"/>
-      <c r="D685" s="17"/>
+    <row r="685" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B685" s="16"/>
+      <c r="C685" s="16"/>
+      <c r="D685" s="16"/>
       <c r="H685" s="4"/>
     </row>
-    <row r="686" spans="2:8">
-      <c r="B686" s="17"/>
-      <c r="C686" s="17"/>
-      <c r="D686" s="17"/>
+    <row r="686" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B686" s="16"/>
+      <c r="C686" s="16"/>
+      <c r="D686" s="16"/>
       <c r="H686" s="4"/>
     </row>
-    <row r="687" spans="2:8">
-      <c r="B687" s="17"/>
-      <c r="C687" s="17"/>
-      <c r="D687" s="17"/>
+    <row r="687" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B687" s="16"/>
+      <c r="C687" s="16"/>
+      <c r="D687" s="16"/>
       <c r="H687" s="4"/>
     </row>
-    <row r="688" spans="2:8">
-      <c r="B688" s="17"/>
-      <c r="C688" s="17"/>
-      <c r="D688" s="17"/>
+    <row r="688" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B688" s="16"/>
+      <c r="C688" s="16"/>
+      <c r="D688" s="16"/>
       <c r="H688" s="4"/>
     </row>
-    <row r="689" spans="2:8">
-      <c r="B689" s="17"/>
-      <c r="C689" s="17"/>
-      <c r="D689" s="17"/>
+    <row r="689" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B689" s="16"/>
+      <c r="C689" s="16"/>
+      <c r="D689" s="16"/>
       <c r="H689" s="4"/>
     </row>
-    <row r="690" spans="2:8">
-      <c r="B690" s="17"/>
-      <c r="C690" s="17"/>
-      <c r="D690" s="17"/>
+    <row r="690" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B690" s="16"/>
+      <c r="C690" s="16"/>
+      <c r="D690" s="16"/>
       <c r="H690" s="4"/>
     </row>
-    <row r="691" spans="2:8">
-      <c r="B691" s="17"/>
-      <c r="C691" s="17"/>
-      <c r="D691" s="17"/>
+    <row r="691" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B691" s="16"/>
+      <c r="C691" s="16"/>
+      <c r="D691" s="16"/>
       <c r="H691" s="4"/>
     </row>
-    <row r="692" spans="2:8">
-      <c r="B692" s="17"/>
-      <c r="C692" s="17"/>
-      <c r="D692" s="17"/>
+    <row r="692" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B692" s="16"/>
+      <c r="C692" s="16"/>
+      <c r="D692" s="16"/>
       <c r="H692" s="4"/>
     </row>
-    <row r="693" spans="2:8">
-      <c r="B693" s="17"/>
-      <c r="C693" s="17"/>
-      <c r="D693" s="17"/>
+    <row r="693" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B693" s="16"/>
+      <c r="C693" s="16"/>
+      <c r="D693" s="16"/>
       <c r="H693" s="4"/>
     </row>
-    <row r="694" spans="2:8">
-      <c r="B694" s="17"/>
-      <c r="C694" s="17"/>
-      <c r="D694" s="17"/>
+    <row r="694" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B694" s="16"/>
+      <c r="C694" s="16"/>
+      <c r="D694" s="16"/>
       <c r="H694" s="4"/>
     </row>
-    <row r="695" spans="2:8">
-      <c r="B695" s="17"/>
-      <c r="C695" s="17"/>
-      <c r="D695" s="17"/>
+    <row r="695" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B695" s="16"/>
+      <c r="C695" s="16"/>
+      <c r="D695" s="16"/>
       <c r="H695" s="4"/>
     </row>
-    <row r="696" spans="2:8">
-      <c r="B696" s="17"/>
-      <c r="C696" s="17"/>
-      <c r="D696" s="17"/>
+    <row r="696" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B696" s="16"/>
+      <c r="C696" s="16"/>
+      <c r="D696" s="16"/>
       <c r="H696" s="4"/>
     </row>
-    <row r="697" spans="2:8">
-      <c r="B697" s="17"/>
-      <c r="C697" s="17"/>
-      <c r="D697" s="17"/>
+    <row r="697" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B697" s="16"/>
+      <c r="C697" s="16"/>
+      <c r="D697" s="16"/>
       <c r="H697" s="4"/>
     </row>
-    <row r="698" spans="2:8">
-      <c r="B698" s="17"/>
-      <c r="C698" s="17"/>
-      <c r="D698" s="17"/>
+    <row r="698" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B698" s="16"/>
+      <c r="C698" s="16"/>
+      <c r="D698" s="16"/>
       <c r="H698" s="4"/>
     </row>
-    <row r="699" spans="2:8">
-      <c r="B699" s="17"/>
-      <c r="C699" s="17"/>
-      <c r="D699" s="17"/>
+    <row r="699" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B699" s="16"/>
+      <c r="C699" s="16"/>
+      <c r="D699" s="16"/>
       <c r="H699" s="4"/>
     </row>
-    <row r="700" spans="2:8">
-      <c r="B700" s="17"/>
-      <c r="C700" s="17"/>
-      <c r="D700" s="17"/>
+    <row r="700" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B700" s="16"/>
+      <c r="C700" s="16"/>
+      <c r="D700" s="16"/>
       <c r="H700" s="4"/>
     </row>
-    <row r="701" spans="2:8">
-      <c r="B701" s="17"/>
-      <c r="C701" s="17"/>
-      <c r="D701" s="17"/>
+    <row r="701" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B701" s="16"/>
+      <c r="C701" s="16"/>
+      <c r="D701" s="16"/>
       <c r="H701" s="4"/>
     </row>
-    <row r="702" spans="2:8">
-      <c r="B702" s="17"/>
-      <c r="C702" s="17"/>
-      <c r="D702" s="17"/>
+    <row r="702" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B702" s="16"/>
+      <c r="C702" s="16"/>
+      <c r="D702" s="16"/>
       <c r="H702" s="4"/>
     </row>
-    <row r="703" spans="2:8">
-      <c r="B703" s="17"/>
-      <c r="C703" s="17"/>
-      <c r="D703" s="17"/>
+    <row r="703" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B703" s="16"/>
+      <c r="C703" s="16"/>
+      <c r="D703" s="16"/>
       <c r="H703" s="4"/>
     </row>
-    <row r="704" spans="2:8">
-      <c r="B704" s="17"/>
-      <c r="C704" s="17"/>
-      <c r="D704" s="17"/>
+    <row r="704" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B704" s="16"/>
+      <c r="C704" s="16"/>
+      <c r="D704" s="16"/>
       <c r="H704" s="4"/>
     </row>
-    <row r="705" spans="2:8">
-      <c r="B705" s="17"/>
-      <c r="C705" s="17"/>
-      <c r="D705" s="17"/>
+    <row r="705" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B705" s="16"/>
+      <c r="C705" s="16"/>
+      <c r="D705" s="16"/>
       <c r="H705" s="4"/>
     </row>
-    <row r="706" spans="2:8">
-      <c r="B706" s="17"/>
-      <c r="C706" s="17"/>
-      <c r="D706" s="17"/>
+    <row r="706" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B706" s="16"/>
+      <c r="C706" s="16"/>
+      <c r="D706" s="16"/>
       <c r="H706" s="4"/>
     </row>
-    <row r="707" spans="2:8">
-      <c r="B707" s="17"/>
-      <c r="C707" s="17"/>
-      <c r="D707" s="17"/>
+    <row r="707" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B707" s="16"/>
+      <c r="C707" s="16"/>
+      <c r="D707" s="16"/>
       <c r="H707" s="4"/>
     </row>
-    <row r="708" spans="2:8">
-      <c r="B708" s="17"/>
-      <c r="C708" s="17"/>
-      <c r="D708" s="17"/>
+    <row r="708" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B708" s="16"/>
+      <c r="C708" s="16"/>
+      <c r="D708" s="16"/>
       <c r="H708" s="4"/>
     </row>
-    <row r="709" spans="2:8">
-      <c r="B709" s="17"/>
-      <c r="C709" s="17"/>
-      <c r="D709" s="17"/>
+    <row r="709" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B709" s="16"/>
+      <c r="C709" s="16"/>
+      <c r="D709" s="16"/>
       <c r="H709" s="4"/>
     </row>
-    <row r="710" spans="2:8">
-      <c r="B710" s="17"/>
-      <c r="C710" s="17"/>
-      <c r="D710" s="17"/>
+    <row r="710" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B710" s="16"/>
+      <c r="C710" s="16"/>
+      <c r="D710" s="16"/>
       <c r="H710" s="4"/>
     </row>
-    <row r="711" spans="2:8">
-      <c r="B711" s="17"/>
-      <c r="C711" s="17"/>
-      <c r="D711" s="17"/>
+    <row r="711" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B711" s="16"/>
+      <c r="C711" s="16"/>
+      <c r="D711" s="16"/>
       <c r="H711" s="4"/>
     </row>
-    <row r="712" spans="2:8">
-      <c r="B712" s="17"/>
-      <c r="C712" s="17"/>
-      <c r="D712" s="17"/>
+    <row r="712" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B712" s="16"/>
+      <c r="C712" s="16"/>
+      <c r="D712" s="16"/>
       <c r="H712" s="4"/>
     </row>
-    <row r="713" spans="2:8">
-      <c r="B713" s="17"/>
-      <c r="C713" s="17"/>
-      <c r="D713" s="17"/>
+    <row r="713" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B713" s="16"/>
+      <c r="C713" s="16"/>
+      <c r="D713" s="16"/>
       <c r="H713" s="4"/>
     </row>
-    <row r="714" spans="2:8">
-      <c r="B714" s="17"/>
-      <c r="C714" s="17"/>
-      <c r="D714" s="17"/>
+    <row r="714" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B714" s="16"/>
+      <c r="C714" s="16"/>
+      <c r="D714" s="16"/>
       <c r="H714" s="4"/>
     </row>
-    <row r="715" spans="2:8">
-      <c r="B715" s="17"/>
-      <c r="C715" s="17"/>
-      <c r="D715" s="17"/>
+    <row r="715" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B715" s="16"/>
+      <c r="C715" s="16"/>
+      <c r="D715" s="16"/>
       <c r="H715" s="4"/>
     </row>
-    <row r="716" spans="2:8">
-      <c r="B716" s="17"/>
-      <c r="C716" s="17"/>
-      <c r="D716" s="17"/>
+    <row r="716" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B716" s="16"/>
+      <c r="C716" s="16"/>
+      <c r="D716" s="16"/>
       <c r="H716" s="4"/>
     </row>
-    <row r="717" spans="2:8">
-      <c r="B717" s="17"/>
-      <c r="C717" s="17"/>
-      <c r="D717" s="17"/>
+    <row r="717" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B717" s="16"/>
+      <c r="C717" s="16"/>
+      <c r="D717" s="16"/>
       <c r="H717" s="4"/>
     </row>
-    <row r="718" spans="2:8">
-      <c r="B718" s="17"/>
-      <c r="C718" s="17"/>
-      <c r="D718" s="17"/>
+    <row r="718" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B718" s="16"/>
+      <c r="C718" s="16"/>
+      <c r="D718" s="16"/>
       <c r="H718" s="4"/>
     </row>
-    <row r="719" spans="2:8">
-      <c r="B719" s="17"/>
-      <c r="C719" s="17"/>
-      <c r="D719" s="17"/>
+    <row r="719" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B719" s="16"/>
+      <c r="C719" s="16"/>
+      <c r="D719" s="16"/>
       <c r="H719" s="4"/>
     </row>
-    <row r="720" spans="2:8">
-      <c r="B720" s="17"/>
-      <c r="C720" s="17"/>
-      <c r="D720" s="17"/>
+    <row r="720" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B720" s="16"/>
+      <c r="C720" s="16"/>
+      <c r="D720" s="16"/>
       <c r="H720" s="4"/>
     </row>
-    <row r="721" spans="2:8">
-      <c r="B721" s="17"/>
-      <c r="C721" s="17"/>
-      <c r="D721" s="17"/>
+    <row r="721" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B721" s="16"/>
+      <c r="C721" s="16"/>
+      <c r="D721" s="16"/>
       <c r="H721" s="4"/>
     </row>
-    <row r="722" spans="2:8">
-      <c r="B722" s="17"/>
-      <c r="C722" s="17"/>
-      <c r="D722" s="17"/>
+    <row r="722" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B722" s="16"/>
+      <c r="C722" s="16"/>
+      <c r="D722" s="16"/>
       <c r="H722" s="4"/>
     </row>
-    <row r="723" spans="2:8">
-      <c r="B723" s="17"/>
-      <c r="C723" s="17"/>
-      <c r="D723" s="17"/>
+    <row r="723" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B723" s="16"/>
+      <c r="C723" s="16"/>
+      <c r="D723" s="16"/>
       <c r="H723" s="4"/>
     </row>
-    <row r="724" spans="2:8">
-      <c r="B724" s="17"/>
-      <c r="C724" s="17"/>
-      <c r="D724" s="17"/>
+    <row r="724" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B724" s="16"/>
+      <c r="C724" s="16"/>
+      <c r="D724" s="16"/>
       <c r="H724" s="4"/>
     </row>
-    <row r="725" spans="2:8">
-      <c r="B725" s="17"/>
-      <c r="C725" s="17"/>
-      <c r="D725" s="17"/>
+    <row r="725" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B725" s="16"/>
+      <c r="C725" s="16"/>
+      <c r="D725" s="16"/>
       <c r="H725" s="4"/>
     </row>
-    <row r="726" spans="2:8">
-      <c r="B726" s="17"/>
-      <c r="C726" s="17"/>
-      <c r="D726" s="17"/>
+    <row r="726" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B726" s="16"/>
+      <c r="C726" s="16"/>
+      <c r="D726" s="16"/>
       <c r="H726" s="4"/>
     </row>
-    <row r="727" spans="2:8">
-      <c r="B727" s="17"/>
-      <c r="C727" s="17"/>
-      <c r="D727" s="17"/>
+    <row r="727" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B727" s="16"/>
+      <c r="C727" s="16"/>
+      <c r="D727" s="16"/>
       <c r="H727" s="4"/>
     </row>
-    <row r="728" spans="2:8">
-      <c r="B728" s="17"/>
-      <c r="C728" s="17"/>
-      <c r="D728" s="17"/>
+    <row r="728" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B728" s="16"/>
+      <c r="C728" s="16"/>
+      <c r="D728" s="16"/>
       <c r="H728" s="4"/>
     </row>
-    <row r="729" spans="2:8">
-      <c r="B729" s="17"/>
-      <c r="C729" s="17"/>
-      <c r="D729" s="17"/>
+    <row r="729" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B729" s="16"/>
+      <c r="C729" s="16"/>
+      <c r="D729" s="16"/>
       <c r="H729" s="4"/>
     </row>
-    <row r="730" spans="2:8">
-      <c r="B730" s="17"/>
-      <c r="C730" s="17"/>
-      <c r="D730" s="17"/>
+    <row r="730" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B730" s="16"/>
+      <c r="C730" s="16"/>
+      <c r="D730" s="16"/>
       <c r="H730" s="4"/>
     </row>
-    <row r="731" spans="2:8">
-      <c r="B731" s="17"/>
-      <c r="C731" s="17"/>
-      <c r="D731" s="17"/>
+    <row r="731" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B731" s="16"/>
+      <c r="C731" s="16"/>
+      <c r="D731" s="16"/>
       <c r="H731" s="4"/>
     </row>
-    <row r="732" spans="2:8">
-      <c r="B732" s="17"/>
-      <c r="C732" s="17"/>
-      <c r="D732" s="17"/>
+    <row r="732" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B732" s="16"/>
+      <c r="C732" s="16"/>
+      <c r="D732" s="16"/>
       <c r="H732" s="4"/>
     </row>
-    <row r="733" spans="2:8">
-      <c r="B733" s="17"/>
-      <c r="C733" s="17"/>
-      <c r="D733" s="17"/>
+    <row r="733" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B733" s="16"/>
+      <c r="C733" s="16"/>
+      <c r="D733" s="16"/>
       <c r="H733" s="4"/>
     </row>
-    <row r="734" spans="2:8">
-      <c r="B734" s="17"/>
-      <c r="C734" s="17"/>
-      <c r="D734" s="17"/>
+    <row r="734" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B734" s="16"/>
+      <c r="C734" s="16"/>
+      <c r="D734" s="16"/>
       <c r="H734" s="4"/>
     </row>
-    <row r="735" spans="2:8">
-      <c r="B735" s="17"/>
-      <c r="C735" s="17"/>
-      <c r="D735" s="17"/>
+    <row r="735" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B735" s="16"/>
+      <c r="C735" s="16"/>
+      <c r="D735" s="16"/>
       <c r="H735" s="4"/>
     </row>
-    <row r="736" spans="2:8">
-      <c r="B736" s="17"/>
-      <c r="C736" s="17"/>
-      <c r="D736" s="17"/>
+    <row r="736" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B736" s="16"/>
+      <c r="C736" s="16"/>
+      <c r="D736" s="16"/>
       <c r="H736" s="4"/>
     </row>
-    <row r="737" spans="2:8">
-      <c r="B737" s="17"/>
-      <c r="C737" s="17"/>
-      <c r="D737" s="17"/>
+    <row r="737" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B737" s="16"/>
+      <c r="C737" s="16"/>
+      <c r="D737" s="16"/>
       <c r="H737" s="4"/>
     </row>
-    <row r="738" spans="2:8">
-      <c r="B738" s="17"/>
-      <c r="C738" s="17"/>
-      <c r="D738" s="17"/>
+    <row r="738" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B738" s="16"/>
+      <c r="C738" s="16"/>
+      <c r="D738" s="16"/>
       <c r="H738" s="4"/>
     </row>
-    <row r="739" spans="2:8">
-      <c r="B739" s="17"/>
-      <c r="C739" s="17"/>
-      <c r="D739" s="17"/>
+    <row r="739" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B739" s="16"/>
+      <c r="C739" s="16"/>
+      <c r="D739" s="16"/>
       <c r="H739" s="4"/>
     </row>
-    <row r="740" spans="2:8">
-      <c r="B740" s="17"/>
-      <c r="C740" s="17"/>
-      <c r="D740" s="17"/>
+    <row r="740" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B740" s="16"/>
+      <c r="C740" s="16"/>
+      <c r="D740" s="16"/>
       <c r="H740" s="4"/>
     </row>
-    <row r="741" spans="2:8">
-      <c r="B741" s="17"/>
-      <c r="C741" s="17"/>
-      <c r="D741" s="17"/>
+    <row r="741" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B741" s="16"/>
+      <c r="C741" s="16"/>
+      <c r="D741" s="16"/>
       <c r="H741" s="4"/>
     </row>
-    <row r="742" spans="2:8">
-      <c r="B742" s="17"/>
-      <c r="C742" s="17"/>
-      <c r="D742" s="17"/>
+    <row r="742" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B742" s="16"/>
+      <c r="C742" s="16"/>
+      <c r="D742" s="16"/>
       <c r="H742" s="4"/>
     </row>
-    <row r="743" spans="2:8">
-      <c r="B743" s="17"/>
-      <c r="C743" s="17"/>
-      <c r="D743" s="17"/>
+    <row r="743" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B743" s="16"/>
+      <c r="C743" s="16"/>
+      <c r="D743" s="16"/>
       <c r="H743" s="4"/>
     </row>
-    <row r="744" spans="2:8">
-      <c r="B744" s="17"/>
-      <c r="C744" s="17"/>
-      <c r="D744" s="17"/>
+    <row r="744" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B744" s="16"/>
+      <c r="C744" s="16"/>
+      <c r="D744" s="16"/>
       <c r="H744" s="4"/>
     </row>
-    <row r="745" spans="2:8">
-      <c r="B745" s="17"/>
-      <c r="C745" s="17"/>
-      <c r="D745" s="17"/>
+    <row r="745" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B745" s="16"/>
+      <c r="C745" s="16"/>
+      <c r="D745" s="16"/>
       <c r="H745" s="4"/>
     </row>
-    <row r="746" spans="2:8">
-      <c r="B746" s="17"/>
-      <c r="C746" s="17"/>
-      <c r="D746" s="17"/>
+    <row r="746" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B746" s="16"/>
+      <c r="C746" s="16"/>
+      <c r="D746" s="16"/>
       <c r="H746" s="4"/>
     </row>
-    <row r="747" spans="2:8">
-      <c r="B747" s="17"/>
-      <c r="C747" s="17"/>
-      <c r="D747" s="17"/>
+    <row r="747" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B747" s="16"/>
+      <c r="C747" s="16"/>
+      <c r="D747" s="16"/>
       <c r="H747" s="4"/>
     </row>
-    <row r="748" spans="2:8">
-      <c r="B748" s="17"/>
-      <c r="C748" s="17"/>
-      <c r="D748" s="17"/>
+    <row r="748" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B748" s="16"/>
+      <c r="C748" s="16"/>
+      <c r="D748" s="16"/>
       <c r="H748" s="4"/>
     </row>
-    <row r="749" spans="2:8">
-      <c r="B749" s="17"/>
-      <c r="C749" s="17"/>
-      <c r="D749" s="17"/>
+    <row r="749" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B749" s="16"/>
+      <c r="C749" s="16"/>
+      <c r="D749" s="16"/>
       <c r="H749" s="4"/>
     </row>
-    <row r="750" spans="2:8">
-      <c r="B750" s="17"/>
-      <c r="C750" s="17"/>
-      <c r="D750" s="17"/>
+    <row r="750" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B750" s="16"/>
+      <c r="C750" s="16"/>
+      <c r="D750" s="16"/>
       <c r="H750" s="4"/>
     </row>
-    <row r="751" spans="2:8">
-      <c r="B751" s="17"/>
-      <c r="C751" s="17"/>
-      <c r="D751" s="17"/>
+    <row r="751" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B751" s="16"/>
+      <c r="C751" s="16"/>
+      <c r="D751" s="16"/>
       <c r="H751" s="4"/>
     </row>
-    <row r="752" spans="2:8">
-      <c r="B752" s="17"/>
-      <c r="C752" s="17"/>
-      <c r="D752" s="17"/>
+    <row r="752" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B752" s="16"/>
+      <c r="C752" s="16"/>
+      <c r="D752" s="16"/>
       <c r="H752" s="4"/>
     </row>
-    <row r="753" spans="2:8">
-      <c r="B753" s="17"/>
-      <c r="C753" s="17"/>
-      <c r="D753" s="17"/>
+    <row r="753" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B753" s="16"/>
+      <c r="C753" s="16"/>
+      <c r="D753" s="16"/>
       <c r="H753" s="4"/>
     </row>
-    <row r="754" spans="2:8">
-      <c r="B754" s="17"/>
-      <c r="C754" s="17"/>
-      <c r="D754" s="17"/>
+    <row r="754" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B754" s="16"/>
+      <c r="C754" s="16"/>
+      <c r="D754" s="16"/>
       <c r="H754" s="4"/>
     </row>
-    <row r="755" spans="2:8">
-      <c r="B755" s="17"/>
-      <c r="C755" s="17"/>
-      <c r="D755" s="17"/>
+    <row r="755" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B755" s="16"/>
+      <c r="C755" s="16"/>
+      <c r="D755" s="16"/>
       <c r="H755" s="4"/>
     </row>
-    <row r="756" spans="2:8">
-      <c r="B756" s="17"/>
-      <c r="C756" s="17"/>
-      <c r="D756" s="17"/>
+    <row r="756" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B756" s="16"/>
+      <c r="C756" s="16"/>
+      <c r="D756" s="16"/>
       <c r="H756" s="4"/>
     </row>
-    <row r="757" spans="2:8">
-      <c r="B757" s="17"/>
-      <c r="C757" s="17"/>
-      <c r="D757" s="17"/>
+    <row r="757" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B757" s="16"/>
+      <c r="C757" s="16"/>
+      <c r="D757" s="16"/>
       <c r="H757" s="4"/>
     </row>
-    <row r="758" spans="2:8">
-      <c r="B758" s="17"/>
-      <c r="C758" s="17"/>
-      <c r="D758" s="17"/>
+    <row r="758" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B758" s="16"/>
+      <c r="C758" s="16"/>
+      <c r="D758" s="16"/>
       <c r="H758" s="4"/>
     </row>
-    <row r="759" spans="2:8">
-      <c r="B759" s="17"/>
-      <c r="C759" s="17"/>
-      <c r="D759" s="17"/>
+    <row r="759" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B759" s="16"/>
+      <c r="C759" s="16"/>
+      <c r="D759" s="16"/>
       <c r="H759" s="4"/>
     </row>
-    <row r="760" spans="2:8">
-      <c r="B760" s="17"/>
-      <c r="C760" s="17"/>
-      <c r="D760" s="17"/>
+    <row r="760" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B760" s="16"/>
+      <c r="C760" s="16"/>
+      <c r="D760" s="16"/>
       <c r="H760" s="4"/>
     </row>
-    <row r="761" spans="2:8">
-      <c r="B761" s="17"/>
-      <c r="C761" s="17"/>
-      <c r="D761" s="17"/>
+    <row r="761" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B761" s="16"/>
+      <c r="C761" s="16"/>
+      <c r="D761" s="16"/>
       <c r="H761" s="4"/>
     </row>
-    <row r="762" spans="2:8">
-      <c r="B762" s="17"/>
-      <c r="C762" s="17"/>
-      <c r="D762" s="17"/>
+    <row r="762" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B762" s="16"/>
+      <c r="C762" s="16"/>
+      <c r="D762" s="16"/>
       <c r="H762" s="4"/>
     </row>
-    <row r="763" spans="2:8">
-      <c r="B763" s="17"/>
-      <c r="C763" s="17"/>
-      <c r="D763" s="17"/>
+    <row r="763" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B763" s="16"/>
+      <c r="C763" s="16"/>
+      <c r="D763" s="16"/>
       <c r="H763" s="4"/>
     </row>
-    <row r="764" spans="2:8">
-      <c r="B764" s="17"/>
-      <c r="C764" s="17"/>
-      <c r="D764" s="17"/>
+    <row r="764" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B764" s="16"/>
+      <c r="C764" s="16"/>
+      <c r="D764" s="16"/>
       <c r="H764" s="4"/>
     </row>
-    <row r="765" spans="2:8">
-      <c r="B765" s="17"/>
-      <c r="C765" s="17"/>
-      <c r="D765" s="17"/>
+    <row r="765" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B765" s="16"/>
+      <c r="C765" s="16"/>
+      <c r="D765" s="16"/>
       <c r="H765" s="4"/>
     </row>
-    <row r="766" spans="2:8">
-      <c r="B766" s="17"/>
-      <c r="C766" s="17"/>
-      <c r="D766" s="17"/>
+    <row r="766" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B766" s="16"/>
+      <c r="C766" s="16"/>
+      <c r="D766" s="16"/>
       <c r="H766" s="4"/>
     </row>
-    <row r="767" spans="2:8">
-      <c r="B767" s="17"/>
-      <c r="C767" s="17"/>
-      <c r="D767" s="17"/>
+    <row r="767" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B767" s="16"/>
+      <c r="C767" s="16"/>
+      <c r="D767" s="16"/>
       <c r="H767" s="4"/>
     </row>
-    <row r="768" spans="2:8">
-      <c r="B768" s="17"/>
-      <c r="C768" s="17"/>
-      <c r="D768" s="17"/>
+    <row r="768" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B768" s="16"/>
+      <c r="C768" s="16"/>
+      <c r="D768" s="16"/>
       <c r="H768" s="4"/>
     </row>
-    <row r="769" spans="2:8">
-      <c r="B769" s="17"/>
-      <c r="C769" s="17"/>
-      <c r="D769" s="17"/>
+    <row r="769" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B769" s="16"/>
+      <c r="C769" s="16"/>
+      <c r="D769" s="16"/>
       <c r="H769" s="4"/>
     </row>
-    <row r="770" spans="2:8">
-      <c r="B770" s="17"/>
-      <c r="C770" s="17"/>
-      <c r="D770" s="17"/>
+    <row r="770" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B770" s="16"/>
+      <c r="C770" s="16"/>
+      <c r="D770" s="16"/>
       <c r="H770" s="4"/>
     </row>
-    <row r="771" spans="2:8">
-      <c r="B771" s="17"/>
-      <c r="C771" s="17"/>
-      <c r="D771" s="17"/>
+    <row r="771" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B771" s="16"/>
+      <c r="C771" s="16"/>
+      <c r="D771" s="16"/>
       <c r="H771" s="4"/>
     </row>
-    <row r="772" spans="2:8">
-      <c r="B772" s="17"/>
-      <c r="C772" s="17"/>
-      <c r="D772" s="17"/>
+    <row r="772" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B772" s="16"/>
+      <c r="C772" s="16"/>
+      <c r="D772" s="16"/>
       <c r="H772" s="4"/>
     </row>
-    <row r="773" spans="2:8">
-      <c r="B773" s="17"/>
-      <c r="C773" s="17"/>
-      <c r="D773" s="17"/>
+    <row r="773" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B773" s="16"/>
+      <c r="C773" s="16"/>
+      <c r="D773" s="16"/>
       <c r="H773" s="4"/>
     </row>
-    <row r="774" spans="2:8">
-      <c r="B774" s="17"/>
-      <c r="C774" s="17"/>
-      <c r="D774" s="17"/>
+    <row r="774" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B774" s="16"/>
+      <c r="C774" s="16"/>
+      <c r="D774" s="16"/>
       <c r="H774" s="4"/>
     </row>
-    <row r="775" spans="2:8">
-      <c r="B775" s="17"/>
-      <c r="C775" s="17"/>
-      <c r="D775" s="17"/>
+    <row r="775" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B775" s="16"/>
+      <c r="C775" s="16"/>
+      <c r="D775" s="16"/>
       <c r="H775" s="4"/>
     </row>
-    <row r="776" spans="2:8">
-      <c r="B776" s="17"/>
-      <c r="C776" s="17"/>
-      <c r="D776" s="17"/>
+    <row r="776" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B776" s="16"/>
+      <c r="C776" s="16"/>
+      <c r="D776" s="16"/>
       <c r="H776" s="4"/>
     </row>
-    <row r="777" spans="2:8">
-      <c r="B777" s="17"/>
-      <c r="C777" s="17"/>
-      <c r="D777" s="17"/>
+    <row r="777" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B777" s="16"/>
+      <c r="C777" s="16"/>
+      <c r="D777" s="16"/>
       <c r="H777" s="4"/>
     </row>
-    <row r="778" spans="2:8">
-      <c r="B778" s="17"/>
-      <c r="C778" s="17"/>
-      <c r="D778" s="17"/>
+    <row r="778" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B778" s="16"/>
+      <c r="C778" s="16"/>
+      <c r="D778" s="16"/>
       <c r="H778" s="4"/>
     </row>
-    <row r="779" spans="2:8">
-      <c r="B779" s="17"/>
-      <c r="C779" s="17"/>
-      <c r="D779" s="17"/>
+    <row r="779" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B779" s="16"/>
+      <c r="C779" s="16"/>
+      <c r="D779" s="16"/>
       <c r="H779" s="4"/>
     </row>
-    <row r="780" spans="2:8">
-      <c r="B780" s="17"/>
-      <c r="C780" s="17"/>
-      <c r="D780" s="17"/>
+    <row r="780" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B780" s="16"/>
+      <c r="C780" s="16"/>
+      <c r="D780" s="16"/>
       <c r="H780" s="4"/>
     </row>
-    <row r="781" spans="2:8">
-      <c r="B781" s="17"/>
-      <c r="C781" s="17"/>
-      <c r="D781" s="17"/>
+    <row r="781" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B781" s="16"/>
+      <c r="C781" s="16"/>
+      <c r="D781" s="16"/>
       <c r="H781" s="4"/>
     </row>
-    <row r="782" spans="2:8">
-      <c r="B782" s="17"/>
-      <c r="C782" s="17"/>
-      <c r="D782" s="17"/>
+    <row r="782" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B782" s="16"/>
+      <c r="C782" s="16"/>
+      <c r="D782" s="16"/>
       <c r="H782" s="4"/>
     </row>
-    <row r="783" spans="2:8">
-      <c r="B783" s="17"/>
-      <c r="C783" s="17"/>
-      <c r="D783" s="17"/>
+    <row r="783" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B783" s="16"/>
+      <c r="C783" s="16"/>
+      <c r="D783" s="16"/>
       <c r="H783" s="4"/>
     </row>
-    <row r="784" spans="2:8">
-      <c r="B784" s="17"/>
-      <c r="C784" s="17"/>
-      <c r="D784" s="17"/>
+    <row r="784" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B784" s="16"/>
+      <c r="C784" s="16"/>
+      <c r="D784" s="16"/>
       <c r="H784" s="4"/>
     </row>
-    <row r="785" spans="2:8">
-      <c r="B785" s="17"/>
-      <c r="C785" s="17"/>
-      <c r="D785" s="17"/>
+    <row r="785" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B785" s="16"/>
+      <c r="C785" s="16"/>
+      <c r="D785" s="16"/>
       <c r="H785" s="4"/>
     </row>
-    <row r="786" spans="2:8">
-      <c r="B786" s="17"/>
-      <c r="C786" s="17"/>
-      <c r="D786" s="17"/>
+    <row r="786" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B786" s="16"/>
+      <c r="C786" s="16"/>
+      <c r="D786" s="16"/>
       <c r="H786" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1066666666667" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>604</v>
       </c>
@@ -13841,20 +13221,19 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>608</v>
       </c>
       <c r="C2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>